--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmorikuni\Source\Repos\TimeReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Repo\TimeReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18336" windowHeight="20184"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -481,17 +481,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -502,14 +504,14 @@
         <v>0</v>
       </c>
       <c r="G1" s="7" t="e">
-        <f>SUM(B4:G16)/COUNT(B4:G22)</f>
+        <f>SUM(B4:G20)/COUNT(B4:G20)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -542,7 +544,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -552,7 +554,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -562,7 +564,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -572,7 +574,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -582,7 +584,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -592,7 +594,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -602,7 +604,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -612,7 +614,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -622,7 +624,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -632,14 +634,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -649,7 +651,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -659,7 +661,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -669,7 +671,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -679,7 +681,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -689,7 +691,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -699,14 +701,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
@@ -717,12 +719,12 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="5" t="e">
-        <f t="shared" ref="B23:G23" si="0">SUM(B4:B16)/(COUNT(B4:B16))</f>
+        <f t="shared" ref="B23:G23" si="0">SUM(B4:B20)/(COUNT(B4:B20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C23" s="5" t="e">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Repo\TimeReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmorikuni\Source\Repos\TimeReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="17328"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="Template" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Total</t>
   </si>
@@ -43,60 +43,6 @@
   </si>
   <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Add all employees above this line - Do not delete</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>Date</t>
@@ -106,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,14 +61,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +92,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,26 +109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -479,39 +397,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.75" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="e">
-        <f>SUM(B4:G20)/COUNT(B4:G20)</f>
-        <v>#DIV/0!</v>
+      <c r="G1" s="4" t="e">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,220 +450,6 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5" t="e">
-        <f t="shared" ref="B23:G23" si="0">SUM(B4:B20)/(COUNT(B4:B20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmorikuni\Source\Repos\TimeReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="17328"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="3" r:id="rId1"/>
+    <sheet name="09.19.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>09.19.2016</t>
+  </si>
   <si>
     <t>Total</t>
   </si>
@@ -43,6 +42,69 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
   <si>
     <t>Date</t>
@@ -51,40 +113,51 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,6 +166,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,31 +185,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -396,64 +469,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="e">
-        <f>SUM(#REF!)/COUNT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -536,6 +536,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -544,6 +547,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -552,6 +558,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -560,6 +569,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -568,6 +580,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -576,6 +591,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -584,6 +602,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -592,6 +613,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -600,6 +624,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -608,6 +635,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -616,6 +646,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -624,6 +657,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -632,6 +668,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -642,30 +681,48 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -539,6 +539,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -550,6 +553,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -561,6 +567,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -572,6 +581,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -583,6 +595,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -594,6 +609,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -605,6 +623,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -616,6 +637,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -627,6 +651,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -638,6 +665,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -649,6 +679,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -660,6 +693,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -671,6 +707,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -684,6 +723,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -692,6 +734,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -700,6 +745,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -708,6 +756,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -716,12 +767,18 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -542,6 +542,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -556,6 +559,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -570,6 +576,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -584,6 +593,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -598,6 +610,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -612,6 +627,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -626,6 +644,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -640,6 +661,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -654,6 +678,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -668,6 +695,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -682,6 +712,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -696,6 +729,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -710,6 +746,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -726,6 +765,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -737,6 +779,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -748,6 +793,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -759,6 +807,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -770,6 +821,9 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -779,6 +833,9 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -545,6 +545,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -562,6 +565,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -579,6 +585,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -596,6 +605,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -613,6 +625,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -630,6 +645,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -647,6 +665,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -664,6 +685,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -681,6 +705,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -698,6 +725,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -715,6 +745,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -732,6 +765,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -749,6 +785,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -768,6 +807,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -782,6 +824,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -796,6 +841,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -810,6 +858,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -824,6 +875,9 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -836,6 +890,9 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -810,6 +810,9 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -827,6 +830,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -844,6 +850,9 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -861,6 +870,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -878,6 +890,9 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -893,6 +908,9 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,8 +6,9 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="09.19.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Template" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="09.26.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="09.19.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,96 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>09.26.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>09.19.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>Date</t>
@@ -536,18 +540,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -556,18 +548,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -576,18 +556,6 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -596,18 +564,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -616,18 +572,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -636,18 +580,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -656,18 +588,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -676,18 +596,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -696,37 +604,13 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -736,18 +620,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -756,18 +628,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -776,18 +636,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -798,120 +646,30 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -949,6 +707,486 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,7 +1208,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -540,6 +540,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -548,6 +551,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -556,6 +562,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -564,6 +573,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -572,6 +584,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -580,6 +595,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -588,6 +606,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -596,6 +617,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -604,6 +628,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -612,6 +639,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -620,6 +650,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -628,6 +661,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -636,6 +672,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -646,30 +685,48 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -543,6 +543,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -554,6 +557,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -565,6 +571,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -576,6 +585,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -587,6 +599,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -598,6 +613,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -609,6 +627,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -620,6 +641,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -631,6 +655,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -642,6 +669,9 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -653,6 +683,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -664,6 +697,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -675,6 +711,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -688,6 +727,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -696,6 +738,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -704,6 +749,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -712,6 +760,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -720,12 +771,18 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -546,6 +546,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -560,6 +563,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -574,6 +580,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -588,6 +597,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -602,6 +614,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -616,6 +631,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -630,6 +648,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -644,6 +665,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -658,6 +682,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -672,6 +699,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -686,6 +716,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -700,6 +733,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -714,6 +750,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -730,6 +769,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -741,6 +783,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -752,6 +797,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -763,6 +811,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -774,6 +825,9 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -783,6 +837,9 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -549,6 +549,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -566,6 +569,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -583,6 +589,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -600,6 +609,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -617,6 +629,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -634,6 +649,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -651,6 +669,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -668,6 +689,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -685,6 +709,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -702,6 +729,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -719,6 +749,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -736,6 +769,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -753,6 +789,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -772,6 +811,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -786,6 +828,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -800,6 +845,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -814,6 +862,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -828,6 +879,9 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -840,6 +894,9 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -814,6 +814,9 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -831,6 +834,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -848,6 +854,9 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -865,6 +874,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -882,6 +894,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -897,6 +912,9 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,9 +6,10 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="09.26.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="09.19.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Template" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10.03.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="09.26.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="09.19.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Template" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,96 +17,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+  <si>
+    <t>10.03.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>09.26.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>09.19.2016</t>
@@ -540,18 +544,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -560,36 +552,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,18 +568,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -620,18 +576,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -640,18 +584,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -660,18 +592,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -680,18 +600,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -700,18 +608,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -720,18 +616,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -740,18 +624,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -760,18 +632,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -780,18 +640,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -802,120 +650,30 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1141,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1164,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1184,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1198,16 +956,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1363,7 +1121,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1372,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1433,6 +1191,486 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1454,7 +1692,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -641,6 +641,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:7"/>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>22</v>
@@ -676,6 +677,7 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="1:7"/>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>29</v>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,10 +6,11 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10.03.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="09.26.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="09.19.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Template" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10.10.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10.03.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="09.26.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="09.19.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Template" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,96 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>10.10.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Floyd Tanaka</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>10.03.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>09.26.2016</t>
@@ -482,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -614,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -630,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -641,14 +648,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7"/>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -677,33 +686,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7"/>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -734,7 +747,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -780,18 +793,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -800,36 +801,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,18 +817,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -860,307 +825,109 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -1214,7 +981,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1355,7 +1122,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1375,16 +1142,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1395,7 +1162,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1404,18 +1171,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1424,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1435,19 +1202,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1455,7 +1222,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1475,7 +1242,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1495,7 +1262,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1515,12 +1282,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1540,7 +1307,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1560,7 +1327,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1580,7 +1347,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1600,10 +1367,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1612,15 +1379,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1640,7 +1407,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -1673,6 +1440,486 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,7 +1941,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -551,6 +551,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -559,6 +562,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -567,6 +573,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -575,6 +584,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -583,6 +595,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -591,6 +606,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -599,6 +617,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -607,6 +628,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -615,6 +639,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -623,6 +650,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -631,6 +661,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -639,6 +672,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -647,6 +683,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -655,6 +694,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -665,30 +707,48 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -554,6 +554,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -565,6 +568,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -576,6 +582,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -587,6 +596,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -598,6 +610,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -609,6 +624,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -620,6 +638,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -631,6 +652,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -642,6 +666,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -653,6 +680,9 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -664,6 +694,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -675,6 +708,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -686,6 +722,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -697,6 +736,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -710,6 +752,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -718,6 +763,9 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -726,6 +774,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -734,6 +785,9 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -742,12 +796,18 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -557,6 +557,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -571,6 +574,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -585,6 +591,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -599,6 +608,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -613,6 +625,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -627,6 +642,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -641,6 +659,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -655,6 +676,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -669,6 +693,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -683,6 +710,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -697,6 +727,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -711,6 +744,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -725,6 +761,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -739,6 +778,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -755,6 +797,9 @@
       <c r="D20" t="n">
         <v>1</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -766,6 +811,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -777,6 +825,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -788,6 +839,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -799,6 +853,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -808,6 +865,9 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -560,6 +560,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -577,6 +580,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -594,6 +600,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -611,6 +620,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -628,6 +640,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -645,6 +660,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -662,6 +680,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -679,6 +700,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -696,6 +720,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -713,6 +740,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -730,6 +760,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -747,6 +780,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -764,6 +800,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -781,6 +820,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -800,6 +842,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -814,6 +859,9 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -828,6 +876,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -842,6 +893,9 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -856,6 +910,9 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -868,6 +925,9 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -845,6 +845,9 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -862,6 +865,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -879,6 +885,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -896,6 +905,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -913,6 +925,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -928,6 +943,9 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,11 +6,12 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10.10.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10.03.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="09.26.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="09.19.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Template" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10.17.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10.10.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10.03.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="09.26.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="09.19.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Template" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,99 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>10.17.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Floyd Tanaka</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>10.10.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Floyd Tanaka</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>10.03.2016</t>
@@ -551,18 +555,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -571,18 +563,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -591,18 +571,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -611,37 +579,13 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -651,18 +595,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -671,18 +603,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -691,37 +611,13 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -729,18 +625,6 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,37 +635,13 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -791,18 +651,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -811,18 +659,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -833,120 +669,30 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -989,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1051,6 +797,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1059,6 +817,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1067,6 +837,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -1075,6 +857,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1083,132 +877,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1285,18 +1297,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1305,36 +1305,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1345,18 +1321,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1365,18 +1329,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -1385,18 +1337,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -1405,18 +1345,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1425,18 +1353,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -1445,18 +1361,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -1465,18 +1369,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1485,18 +1377,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1505,18 +1385,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1525,18 +1393,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -1547,120 +1403,30 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1886,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1909,13 +1675,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1929,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1943,16 +1709,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2108,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2117,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2178,6 +1944,486 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2199,7 +2445,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -555,6 +555,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -563,6 +566,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -571,6 +577,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -579,6 +588,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -587,6 +599,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -595,6 +610,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -603,6 +621,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -611,6 +632,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -619,6 +643,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -627,6 +654,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -635,6 +665,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -651,6 +684,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -659,6 +695,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -669,6 +708,9 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -679,10 +721,16 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -558,6 +558,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -569,6 +572,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -580,6 +586,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -591,6 +600,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -602,6 +614,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -613,6 +628,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -624,6 +642,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -635,6 +656,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -646,6 +670,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -657,6 +684,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -668,6 +698,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -687,6 +720,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -698,6 +734,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -711,6 +750,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -724,12 +766,18 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -561,6 +561,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -575,6 +578,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -589,6 +595,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -603,6 +612,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -617,6 +629,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -631,6 +646,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -645,6 +663,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -659,6 +680,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -673,6 +697,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -687,6 +714,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -701,6 +731,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -723,6 +756,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -737,6 +773,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -753,6 +792,9 @@
       <c r="D20" t="n">
         <v>1</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -769,6 +811,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -778,6 +823,9 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -564,6 +564,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -581,6 +584,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -598,6 +604,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -615,6 +624,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -632,6 +644,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -649,6 +664,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -666,6 +684,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -683,6 +704,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -700,6 +724,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -717,6 +744,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -734,6 +764,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -759,6 +792,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -776,6 +812,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -795,6 +834,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -814,6 +856,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -826,6 +871,9 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -837,6 +837,9 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -859,6 +862,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -874,6 +880,9 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,12 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10.17.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10.10.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="10.03.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="09.26.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="09.19.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Template" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.24.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10.17.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10.10.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10.03.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="09.26.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="09.19.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Template" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,99 +20,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>10.24.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Floyd Tanaka</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>10.17.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Floyd Tanaka</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>10.10.2016</t>
@@ -555,18 +559,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -575,18 +567,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -595,37 +575,13 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -633,19 +589,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -653,19 +597,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -675,18 +607,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -695,18 +615,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -715,37 +623,13 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -753,18 +637,6 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,9 +644,6 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -783,18 +652,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -803,18 +660,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -825,21 +670,6 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -850,40 +680,10 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -999,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1039,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1076,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1085,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1099,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1119,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1156,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1176,10 +976,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1205,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1216,19 +1016,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1259,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1293,28 +1081,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
@@ -1341,59 +1114,29 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1436,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1498,6 +1241,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1506,6 +1261,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1514,6 +1281,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -1522,6 +1301,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1530,132 +1321,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1732,18 +1741,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1752,36 +1749,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,18 +1765,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1812,18 +1773,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -1832,18 +1781,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -1852,18 +1789,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1872,18 +1797,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -1892,18 +1805,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -1912,18 +1813,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1932,18 +1821,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1952,18 +1829,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1972,18 +1837,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -1994,120 +1847,30 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2333,10 +2096,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2356,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2376,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2390,16 +2153,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2555,7 +2318,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2564,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2625,6 +2388,486 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +2889,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -559,6 +559,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -567,6 +570,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -575,6 +581,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -583,6 +592,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -591,6 +603,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -599,6 +614,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -607,6 +625,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -615,6 +636,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -623,6 +647,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -631,6 +658,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -639,6 +669,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -652,6 +685,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -660,6 +696,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -670,6 +709,9 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -680,10 +722,16 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -562,6 +562,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -573,6 +576,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -584,6 +590,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -595,6 +604,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -606,6 +618,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -617,6 +632,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -628,6 +646,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -639,6 +660,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -650,6 +674,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -661,6 +688,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -672,6 +702,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -688,6 +721,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -699,6 +735,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -712,6 +751,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -725,12 +767,18 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -565,6 +565,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -579,6 +582,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -593,6 +599,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -607,6 +616,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -621,6 +633,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -635,6 +650,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -649,6 +667,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -663,6 +684,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -677,6 +701,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -691,6 +718,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -705,6 +735,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -724,6 +757,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -738,6 +774,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -754,6 +793,9 @@
       <c r="D20" t="n">
         <v>1</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -770,6 +812,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -779,6 +824,9 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apreza\Documents\GitHub\TimeReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="7" r:id="rId1"/>
+    <sheet name="10.24.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>10.24.2016</t>
+  </si>
   <si>
     <t>Total</t>
   </si>
@@ -43,6 +42,78 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>Aljon Preza</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Floyd Tanaka</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Terry Palomares</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
   <si>
     <t>Date</t>
@@ -51,40 +122,51 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,6 +175,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,31 +194,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -396,62 +478,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.75"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.25"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.75"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.45" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="24.75"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.25"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.75"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="23.45" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="e">
-        <f>SUM(#REF!)/COUNT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -568,6 +568,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -585,6 +588,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -602,6 +608,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -619,6 +628,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -636,6 +648,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -653,6 +668,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -670,6 +688,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -687,6 +708,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -704,6 +728,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -721,6 +748,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -738,6 +768,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -760,6 +793,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -777,6 +813,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -796,6 +835,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -815,6 +857,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -827,6 +872,9 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="10.24.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Template" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10.24.2016" sheetId="1" r:id="rId1"/>
+    <sheet name="10.17.2016" sheetId="2" r:id="rId2"/>
+    <sheet name="10.10.2016" sheetId="3" r:id="rId3"/>
+    <sheet name="10.03.2016" sheetId="4" r:id="rId4"/>
+    <sheet name="09.26.2016" sheetId="5" r:id="rId5"/>
+    <sheet name="09.19.2016" sheetId="6" r:id="rId6"/>
+    <sheet name="Template" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="40">
   <si>
     <t>10.24.2016</t>
   </si>
@@ -101,6 +111,9 @@
     <t>Amos Li</t>
   </si>
   <si>
+    <t>Jamie Nau</t>
+  </si>
+  <si>
     <t>Luke Pu</t>
   </si>
   <si>
@@ -114,6 +127,21 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>10.17.2016</t>
+  </si>
+  <si>
+    <t>10.10.2016</t>
+  </si>
+  <si>
+    <t>10.03.2016</t>
+  </si>
+  <si>
+    <t>09.26.2016</t>
+  </si>
+  <si>
+    <t>09.19.2016</t>
   </si>
   <si>
     <t>Date</t>
@@ -122,51 +150,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,8 +218,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E78"/>
-        <bgColor rgb="001F4E78"/>
+        <fgColor rgb="FF1F4E78"/>
+        <bgColor rgb="FF1F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E78"/>
+        <bgColor rgb="FF1F4E78"/>
       </patternFill>
     </fill>
   </fills>
@@ -194,25 +239,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -259,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -294,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -471,49 +518,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.75"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.25"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.75"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.25"/>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.45" r="1" s="5" spans="1:7">
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
-        <v/>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
+        <v>0.71296296296296291</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -542,15 +583,39 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -558,15 +623,39 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -574,7 +663,19 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -582,7 +683,19 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -590,7 +703,19 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -598,7 +723,19 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -606,7 +743,19 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -614,7 +763,19 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="n">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -622,7 +783,19 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -630,7 +803,19 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="n">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
@@ -638,7 +823,19 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
@@ -646,7 +843,19 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="n">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -654,20 +863,44 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="n">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -675,7 +908,16 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="n">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
@@ -683,7 +925,16 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="n">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
@@ -691,15 +942,33 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" t="n">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
@@ -707,89 +976,123 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
-        <v/>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" ref="B30:G30" si="0">SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="G30" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.75"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.25"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.75"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.25"/>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.45" r="1" s="5" spans="1:7">
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
+        <v>34</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(#REF!)/COUNT(#REF!)</f>
-        <v/>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
+        <v>0.72839506172839508</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -814,8 +1117,2145 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" ref="B27:G27" si="0">SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" ref="B27:G27" si="0">SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:G26" si="0">SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v>0.66315789473684206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:G26" si="0">SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v>0.76842105263157889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:G26" si="0">SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="e">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -817,6 +817,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:7"/>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>23</v>
@@ -875,6 +876,9 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -892,6 +892,7 @@
         <v>29</v>
       </c>
     </row>
+    <row r="26" spans="1:7"/>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>30</v>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10.24.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10.17.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="10.10.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="10.03.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="09.26.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="09.19.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Template" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.31.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10.24.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10.17.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10.10.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10.03.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="09.26.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="09.19.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Template" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,99 +21,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>10.31.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Aljon Preza</t>
+  </si>
+  <si>
+    <t>Anna Fong</t>
+  </si>
+  <si>
+    <t>Austin Haruki</t>
+  </si>
+  <si>
+    <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Caden Morikuni</t>
+  </si>
+  <si>
+    <t>Colin Goshi</t>
+  </si>
+  <si>
+    <t>Floyd Tanaka</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>James McDowell</t>
+  </si>
+  <si>
+    <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>John Wingard</t>
+  </si>
+  <si>
+    <t>Justin Khan</t>
+  </si>
+  <si>
+    <t>Rashell Ito</t>
+  </si>
+  <si>
+    <t>Shirley Paoli</t>
+  </si>
+  <si>
+    <t>Terry Palomares</t>
+  </si>
+  <si>
+    <t>Torsten Vaivai-Soderberg</t>
+  </si>
+  <si>
+    <t>Consultants</t>
+  </si>
+  <si>
+    <t>Alfonso Torres</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
+  </si>
+  <si>
+    <t>Jamie Nau</t>
+  </si>
+  <si>
+    <t>Luke Pu</t>
+  </si>
+  <si>
+    <t>Rex Li</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
+  </si>
+  <si>
+    <t>Rick Kooker</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
   <si>
     <t>10.24.2016</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Anna Fong</t>
-  </si>
-  <si>
-    <t>Austin Haruki</t>
-  </si>
-  <si>
-    <t>Brett Kimura</t>
-  </si>
-  <si>
-    <t>Caden Morikuni</t>
-  </si>
-  <si>
-    <t>Colin Goshi</t>
-  </si>
-  <si>
-    <t>Floyd Tanaka</t>
-  </si>
-  <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
-    <t>James McDowell</t>
-  </si>
-  <si>
-    <t>Jeffrey Neimy</t>
-  </si>
-  <si>
-    <t>John Wingard</t>
-  </si>
-  <si>
-    <t>Justin Khan</t>
-  </si>
-  <si>
-    <t>Rashell Ito</t>
-  </si>
-  <si>
-    <t>Shirley Paoli</t>
-  </si>
-  <si>
-    <t>Torsten Vaivai-Soderberg</t>
-  </si>
-  <si>
-    <t>Consultants</t>
-  </si>
-  <si>
-    <t>Alfonso Torres</t>
-  </si>
-  <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
-    <t>Luke Pu</t>
-  </si>
-  <si>
-    <t>Rex Li</t>
-  </si>
-  <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
-    <t>Rick Kooker</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>10.17.2016</t>
@@ -497,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -557,19 +570,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -579,37 +580,13 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -619,18 +596,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -639,36 +604,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -677,19 +618,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -699,36 +628,12 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -739,18 +644,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -759,43 +652,19 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -804,44 +673,25 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -849,38 +699,11 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
@@ -892,33 +715,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7"/>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -949,7 +786,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -990,13 +827,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1010,7 +847,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1025,24 +862,24 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1050,10 +887,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1070,36 +907,36 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1110,19 +947,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1130,7 +967,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1150,13 +987,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1170,10 +1007,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1190,16 +1027,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1210,15 +1047,12 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1238,7 +1072,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1247,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1258,12 +1092,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1276,19 +1110,16 @@
       </c>
       <c r="F20" t="n">
         <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1300,15 +1131,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -1328,17 +1156,17 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>
@@ -1392,7 +1220,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1433,13 +1261,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1453,7 +1281,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1473,19 +1301,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1493,7 +1321,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1513,10 +1341,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1525,21 +1353,21 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1553,19 +1381,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1573,7 +1401,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1593,10 +1421,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1613,13 +1441,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1633,7 +1461,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1645,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1653,27 +1481,15 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1693,16 +1509,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1713,12 +1529,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1733,32 +1549,17 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1778,67 +1579,37 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>
@@ -1876,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,7 +1663,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1901,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1933,41 +1704,101 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,6 +1809,18 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -1986,6 +1829,18 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1994,6 +1849,18 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2002,12 +1869,36 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2018,13 +1909,37 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2034,68 +1949,190 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2126,7 +2163,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2167,392 +2204,146 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -2606,7 +2397,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2647,7 +2438,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -2667,7 +2458,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2687,7 +2478,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2707,7 +2498,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2727,7 +2518,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2747,7 +2538,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2767,16 +2558,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2787,7 +2578,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2796,18 +2587,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2816,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2827,19 +2618,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2847,7 +2638,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2867,7 +2658,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2887,7 +2678,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2907,12 +2698,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2932,7 +2723,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2952,7 +2743,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2972,7 +2763,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2992,10 +2783,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3004,15 +2795,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -3032,7 +2823,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -3065,6 +2856,486 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3086,7 +3357,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -598,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -683,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -576,6 +576,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -584,6 +587,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -592,6 +598,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -600,6 +609,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -608,6 +620,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -616,6 +631,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -624,6 +642,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -632,6 +653,9 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -640,6 +664,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -648,6 +675,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -656,6 +686,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -664,6 +697,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -677,6 +713,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -685,6 +724,9 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -693,6 +735,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -703,6 +748,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -718,10 +766,16 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -579,6 +579,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -590,6 +593,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -601,6 +607,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -612,6 +621,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -623,6 +635,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -634,6 +649,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -645,6 +663,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -656,6 +677,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -667,6 +691,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -678,6 +705,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -689,6 +719,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -700,6 +733,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -716,6 +752,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -727,6 +766,9 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -738,6 +780,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -751,6 +796,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -769,12 +817,18 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -582,6 +582,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -596,6 +599,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -610,6 +616,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -624,6 +633,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -638,6 +650,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -652,6 +667,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -666,6 +684,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -680,6 +701,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -694,6 +718,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -708,6 +735,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -722,6 +752,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -736,6 +769,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -755,6 +791,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -769,6 +808,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -783,6 +825,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -799,6 +844,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -820,6 +868,9 @@
       <c r="D25" t="n">
         <v>1</v>
       </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -829,6 +880,9 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -585,6 +585,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -602,6 +605,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -619,6 +625,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -636,6 +645,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -653,6 +665,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -670,6 +685,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -687,6 +705,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -704,6 +725,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -721,6 +745,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -738,6 +765,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -755,6 +785,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -772,6 +805,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -794,6 +830,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -811,6 +850,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -828,6 +870,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -847,6 +892,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -871,6 +919,9 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -883,6 +934,9 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -895,6 +895,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -922,6 +925,9 @@
       <c r="F25" t="n">
         <v>1</v>
       </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -937,6 +943,9 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,15 +6,16 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.07.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10.31.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="10.24.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="10.17.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="10.10.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="10.03.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="09.26.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="09.19.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Template" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="11.14.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11.07.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10.31.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10.24.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10.17.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10.10.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.03.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="09.26.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="09.19.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Template" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
-    <t>11.07.2016</t>
+    <t>11.14.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -72,13 +73,13 @@
     <t>Floyd Tanaka</t>
   </si>
   <si>
-    <t>Gary Murakami</t>
-  </si>
-  <si>
     <t>James McDowell</t>
   </si>
   <si>
     <t>Jeffrey Neimy</t>
+  </si>
+  <si>
+    <t>Jennifer Eggers</t>
   </si>
   <si>
     <t>John Wingard</t>
@@ -105,9 +106,6 @@
     <t>Alfonso Torres</t>
   </si>
   <si>
-    <t>Amos Li</t>
-  </si>
-  <si>
     <t>Jamie Nau</t>
   </si>
   <si>
@@ -124,6 +122,15 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>11.07.2016</t>
+  </si>
+  <si>
+    <t>Gary Murakami</t>
+  </si>
+  <si>
+    <t>Amos Li</t>
   </si>
   <si>
     <t>10.31.2016</t>
@@ -155,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -194,8 +201,13 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -214,6 +226,12 @@
         <bgColor rgb="FF1F4E78"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +246,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -238,6 +256,7 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -514,6 +533,328 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="98">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -530,7 +871,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -711,7 +1052,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -731,7 +1072,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -751,7 +1092,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -901,17 +1242,17 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -931,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -951,17 +1292,17 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="8">
         <f>SUM(B4:B29)/COUNT(B4:B29)</f>
@@ -993,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1356,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1196,7 +1537,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1216,7 +1557,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1236,7 +1577,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1386,17 +1727,17 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -1416,7 +1757,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1436,17 +1777,17 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="8">
         <f>SUM(B4:B29)/COUNT(B4:B29)</f>
@@ -1470,440 +1811,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1934,7 +1841,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1981,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2010,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2021,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2038,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2058,19 +1965,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2078,13 +1985,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -2095,19 +2002,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2115,7 +2022,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2135,13 +2042,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2158,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2178,13 +2085,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2197,9 +2104,6 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2232,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2262,18 +2166,15 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2285,15 +2186,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2313,17 +2211,17 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>
@@ -2377,7 +2275,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2424,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2464,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2501,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2510,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2524,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2538,19 +2436,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2558,7 +2456,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2578,10 +2476,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2601,10 +2499,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2630,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -2641,19 +2539,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2684,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2718,32 +2604,17 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2763,67 +2634,37 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>
@@ -2861,7 +2702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2877,7 +2718,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2886,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2923,6 +2764,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2931,6 +2784,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -2939,6 +2804,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -2947,6 +2824,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2955,132 +2844,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3111,7 +3218,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3157,18 +3264,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3177,36 +3272,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3217,18 +3288,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3237,77 +3296,29 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3317,18 +3328,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -3337,18 +3336,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -3357,18 +3344,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -3377,18 +3352,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3397,18 +3360,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3419,125 +3370,35 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -3591,7 +3452,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3732,7 +3593,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -3752,16 +3613,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3772,7 +3633,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -3781,13 +3642,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3801,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3815,16 +3676,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3917,7 +3778,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3937,7 +3798,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -3957,7 +3818,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -3977,10 +3838,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3989,15 +3850,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -4017,7 +3878,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -4055,9 +3916,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="98">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4071,7 +3932,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4080,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
         <v/>
       </c>
     </row>
@@ -4110,8 +3971,421 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -595,6 +595,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -603,6 +606,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -611,6 +617,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -619,6 +628,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -627,6 +639,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -635,6 +650,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -643,6 +661,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -651,6 +672,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -659,6 +683,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -667,6 +694,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -675,6 +705,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -683,6 +716,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -696,6 +732,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -704,6 +743,9 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -712,6 +754,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -722,6 +767,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -732,10 +780,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -598,6 +598,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -609,6 +612,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -620,6 +626,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -631,6 +640,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -642,6 +654,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -653,6 +668,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -664,6 +682,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -675,6 +696,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -686,6 +710,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -697,6 +724,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -708,6 +738,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -719,6 +752,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -735,6 +771,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -746,6 +785,9 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -757,6 +799,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -770,6 +815,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -783,12 +831,18 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -601,6 +601,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -615,6 +618,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -629,6 +635,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -643,6 +652,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -657,6 +669,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -671,6 +686,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -685,6 +703,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -699,6 +720,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -713,6 +737,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -727,6 +754,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -741,6 +771,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -755,6 +788,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -774,6 +810,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -788,6 +827,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -802,6 +844,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -818,6 +863,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -834,6 +882,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -843,6 +894,9 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -604,6 +604,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -621,6 +624,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -638,6 +644,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -655,6 +664,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -672,6 +684,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -689,6 +704,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -706,6 +724,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -723,6 +744,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -740,6 +764,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -757,6 +784,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -774,6 +804,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -791,6 +824,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -813,6 +849,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -830,6 +869,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -847,6 +889,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -866,6 +911,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -885,6 +933,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -897,6 +948,9 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -914,6 +914,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -936,6 +939,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -952,6 +958,9 @@
       </c>
       <c r="F25" t="n">
         <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,16 +6,17 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.14.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="11.07.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="10.31.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="10.24.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="10.17.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="10.10.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="10.03.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="09.26.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="09.19.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Template" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.21.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11.14.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="11.07.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10.31.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10.24.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10.17.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.10.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.03.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="09.26.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="09.19.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Template" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
-    <t>11.14.2016</t>
+    <t>11.21.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -122,6 +123,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>11.14.2016</t>
   </si>
   <si>
     <t>11.07.2016</t>
@@ -595,18 +599,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -615,37 +607,13 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -655,18 +623,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -675,36 +631,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -715,18 +647,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -735,18 +655,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -755,36 +663,12 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -793,18 +677,6 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -815,18 +687,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -840,18 +700,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -860,18 +708,6 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -880,18 +716,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -902,21 +726,6 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -927,40 +736,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1008,6 +787,486 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1029,7 +1288,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1075,6 +1334,486 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1835,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1277,7 +2016,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1467,7 +2206,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1559,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +2320,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1762,7 +2501,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1952,7 +2691,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2036,440 +2775,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2547,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2576,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2587,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2604,7 +2909,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2624,19 +2929,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2644,13 +2949,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -2661,19 +2966,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2707,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2724,7 +3029,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2744,13 +3049,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2763,9 +3068,6 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2798,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2828,13 +3130,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2851,9 +3150,6 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3030,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3067,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3076,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3090,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3104,19 +3400,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3147,7 +3443,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3167,10 +3463,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -3196,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -3207,19 +3503,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3250,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3284,27 +3568,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3332,59 +3601,29 @@
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3427,7 +3666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3452,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3489,6 +3728,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3497,6 +3748,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -3505,6 +3768,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -3513,6 +3788,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3521,132 +3808,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3723,18 +4228,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3743,36 +4236,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3783,18 +4252,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3803,36 +4260,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4276,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -3863,18 +4284,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -3883,18 +4292,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -3903,18 +4300,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -3923,18 +4308,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -3943,18 +4316,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3963,18 +4324,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3985,120 +4334,30 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4298,7 +4557,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -4324,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4347,13 +4606,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4367,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4381,16 +4640,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4483,7 +4742,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4546,7 +4805,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -4555,10 +4814,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -599,6 +599,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -607,6 +610,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -615,6 +621,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -623,6 +632,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -631,6 +643,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -639,6 +654,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -647,6 +665,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -655,6 +676,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -663,6 +687,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -671,6 +698,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -679,6 +709,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -687,6 +720,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -700,6 +736,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -708,6 +747,9 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -716,6 +758,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -726,6 +771,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -736,10 +784,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -602,6 +602,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -613,6 +616,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -624,6 +630,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -635,6 +644,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -646,6 +658,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -657,6 +672,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -668,6 +686,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -679,6 +700,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -690,6 +714,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -701,6 +728,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -712,6 +742,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -723,6 +756,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -739,6 +775,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -750,6 +789,9 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -761,6 +803,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -774,6 +819,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -787,12 +835,18 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -605,6 +605,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -619,6 +622,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -633,6 +639,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -647,6 +656,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -661,6 +673,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -675,6 +690,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -689,6 +707,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -703,6 +724,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -717,6 +741,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -731,6 +758,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -745,6 +775,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -759,6 +792,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -778,6 +814,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -792,6 +831,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -806,6 +848,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -822,6 +867,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -838,6 +886,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -848,6 +899,9 @@
       </c>
       <c r="D25" t="n">
         <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -608,6 +608,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -625,6 +628,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -642,6 +648,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -659,6 +668,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -676,6 +688,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -693,6 +708,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -710,6 +728,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -727,6 +748,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -744,6 +768,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -761,6 +788,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -778,6 +808,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -795,6 +828,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -817,6 +853,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -834,6 +873,9 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -851,6 +893,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -870,6 +915,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -889,6 +937,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -902,6 +953,9 @@
       </c>
       <c r="E25" t="n">
         <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -918,6 +918,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -940,6 +943,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -955,6 +961,9 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,17 +6,18 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.21.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="11.14.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="11.07.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="10.31.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="10.24.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="10.17.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="10.10.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="10.03.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="09.26.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="09.19.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Template" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11.28.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11.21.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="11.14.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="11.07.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10.31.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10.24.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.17.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.10.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10.03.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="09.26.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.19.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Template" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
-    <t>11.21.2016</t>
+    <t>11.28.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -123,6 +124,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>11.21.2016</t>
   </si>
   <si>
     <t>11.14.2016</t>
@@ -599,18 +603,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -619,36 +611,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -659,18 +627,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -679,18 +635,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -699,37 +643,13 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -739,18 +659,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -759,18 +667,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -779,18 +675,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -799,18 +683,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -819,18 +691,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -844,18 +704,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -864,18 +712,6 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -884,18 +720,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -906,21 +730,6 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -931,40 +740,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1174,7 +953,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1200,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1223,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1243,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1257,16 +1036,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1359,7 +1138,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1422,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1431,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1492,6 +1271,486 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1513,7 +1772,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1630,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1664,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1690,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1724,19 +1983,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1753,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1773,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1804,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1813,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1824,10 +2083,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1847,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1898,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1985,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2039,6 +2298,486 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2060,7 +2799,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2241,7 +2980,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2431,7 +3170,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2523,7 +3262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2545,7 +3284,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2726,7 +3465,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2916,7 +3655,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3000,440 +3739,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3511,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3540,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3551,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3568,7 +3873,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3588,19 +3893,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3608,13 +3913,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -3625,19 +3930,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3671,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -3688,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3708,13 +4013,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -3727,9 +4032,6 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3762,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3792,13 +4094,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3815,9 +4114,6 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3994,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4031,7 +4327,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4040,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4054,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4068,19 +4364,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4111,7 +4407,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4131,10 +4427,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -4160,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4171,19 +4467,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4214,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4248,27 +4532,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4296,59 +4565,29 @@
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4391,7 +4630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4416,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4453,6 +4692,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4461,6 +4712,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4469,6 +4732,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4477,6 +4752,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4485,132 +4772,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4687,18 +5192,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4707,36 +5200,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4747,18 +5216,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4767,36 +5224,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5240,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -4827,18 +5248,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -4847,18 +5256,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -4867,18 +5264,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -4887,18 +5272,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -4907,18 +5280,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -4927,18 +5288,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -4949,120 +5298,30 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -603,6 +603,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -611,6 +614,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -619,6 +625,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -627,6 +636,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -635,6 +647,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -643,6 +658,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -651,6 +669,9 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -659,6 +680,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -667,6 +691,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -675,6 +702,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -683,6 +713,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -691,6 +724,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -704,6 +740,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -712,6 +751,9 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -720,6 +762,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -730,6 +775,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -740,10 +788,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -606,6 +606,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -617,6 +620,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -628,6 +634,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -639,6 +648,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -650,6 +662,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -661,6 +676,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -672,6 +690,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -683,6 +704,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -694,6 +718,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -705,6 +732,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -716,6 +746,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -727,6 +760,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -743,6 +779,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -754,6 +793,9 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -765,6 +807,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -778,6 +823,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -791,12 +839,18 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -609,6 +609,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -623,6 +626,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -637,6 +643,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -651,6 +660,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -665,6 +677,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -679,6 +694,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -693,6 +711,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -707,6 +728,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -721,6 +745,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -735,6 +762,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -749,6 +779,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -763,6 +796,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -782,6 +818,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -796,6 +835,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -810,6 +852,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -826,6 +871,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -842,6 +890,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -851,6 +902,9 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -612,6 +612,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -629,6 +632,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -646,6 +652,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -663,6 +672,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -680,6 +692,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -697,6 +712,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -714,6 +732,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -731,6 +752,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -748,6 +772,9 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -765,6 +792,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -782,6 +812,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -799,6 +832,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -821,6 +857,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -838,6 +877,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -855,6 +897,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -874,6 +919,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -893,6 +941,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -905,6 +956,9 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -922,6 +922,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -944,6 +947,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -960,6 +966,9 @@
       </c>
       <c r="F25" t="n">
         <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,18 +6,19 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.28.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="11.21.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="11.14.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="11.07.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="10.31.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="10.24.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="10.17.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="10.10.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="10.03.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="09.26.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.19.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Template" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="12.05.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11.28.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="11.21.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="11.14.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="11.07.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10.31.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.24.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.17.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10.10.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.03.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.26.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="09.19.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Template" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,9 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
-    <t>11.28.2016</t>
+    <t>12.05.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>11.28.2016</t>
   </si>
   <si>
     <t>11.21.2016</t>
@@ -603,18 +607,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -623,37 +615,13 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -661,18 +629,6 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,36 +639,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -723,18 +655,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -743,37 +663,13 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -783,18 +679,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -803,18 +687,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -823,18 +695,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -848,37 +708,13 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -888,18 +724,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -910,21 +734,6 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -935,40 +744,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1083,18 +862,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1103,36 +870,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,18 +886,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1163,36 +894,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +910,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1223,18 +918,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -1243,18 +926,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -1263,18 +934,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1283,18 +942,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1303,18 +950,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1323,18 +958,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -1345,120 +968,30 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1658,7 +1191,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1684,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1707,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1727,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1741,16 +1274,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1843,7 +1376,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1906,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1915,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1976,6 +1509,486 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,7 +2010,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2114,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2148,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2228,16 +2241,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2260,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2297,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2331,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2382,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2430,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2469,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2594,13 +2607,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2628,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2654,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2688,19 +2701,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2717,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2737,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2768,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2777,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2788,10 +2801,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -2811,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2862,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2949,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3003,6 +3016,486 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +3517,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3205,7 +3698,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3395,7 +3888,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3487,7 +3980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3509,7 +4002,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3690,7 +4183,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -3880,7 +4373,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3964,440 +4457,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4475,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4504,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4515,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4532,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4552,19 +4611,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4572,13 +4631,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -4589,19 +4648,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4635,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -4652,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4672,13 +4731,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4691,9 +4750,6 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -4726,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4756,13 +4812,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4779,9 +4832,6 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4958,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4995,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5004,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5018,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5032,19 +5082,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5075,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5095,10 +5145,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -5124,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5135,19 +5185,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5178,10 +5216,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -5212,27 +5250,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5260,59 +5283,29 @@
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5355,7 +5348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5380,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -5417,6 +5410,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -5425,6 +5430,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5433,6 +5450,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -5441,6 +5470,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -5449,132 +5490,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -607,6 +607,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -615,6 +618,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -623,6 +629,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -631,6 +640,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -639,6 +651,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -647,6 +662,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -655,6 +673,9 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -663,6 +684,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -671,6 +695,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -679,6 +706,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -687,6 +717,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -695,6 +728,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -708,6 +744,9 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -716,6 +755,9 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -724,6 +766,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -734,6 +779,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -744,10 +792,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -610,6 +610,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -621,6 +624,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -632,6 +638,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -643,6 +652,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -654,6 +666,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -665,6 +680,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -676,6 +694,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -687,6 +708,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -698,6 +722,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -709,6 +736,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -720,6 +750,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -731,6 +764,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -747,6 +783,9 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -758,6 +797,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -769,6 +811,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -782,6 +827,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -795,6 +843,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -802,6 +853,9 @@
       </c>
       <c r="C25" t="n">
         <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -613,6 +613,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -627,6 +630,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -641,6 +647,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -655,6 +664,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -669,6 +681,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -683,6 +698,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -697,6 +715,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -711,6 +732,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -725,6 +749,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -739,6 +766,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -753,6 +783,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -767,6 +800,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -786,6 +822,9 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -800,6 +839,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -814,6 +856,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -830,6 +875,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -846,6 +894,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -856,6 +907,9 @@
       </c>
       <c r="D25" t="n">
         <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -616,6 +616,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -633,6 +636,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -650,6 +656,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -667,6 +676,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -684,6 +696,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -701,6 +716,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -718,6 +736,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -735,6 +756,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -752,6 +776,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -769,6 +796,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -786,6 +816,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -803,6 +836,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -825,6 +861,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -842,6 +881,9 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -859,6 +901,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -878,6 +923,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -897,6 +945,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -909,6 +960,9 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -926,6 +926,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -948,6 +951,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -964,6 +970,9 @@
       </c>
       <c r="F25" t="n">
         <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,19 +6,20 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12.05.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="11.28.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="11.21.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="11.14.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="11.07.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="10.31.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="10.24.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="10.17.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="10.10.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.03.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.26.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="09.19.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Template" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.12.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.05.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="11.28.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="11.21.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="11.14.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="11.07.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10.31.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.24.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10.17.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.10.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10.03.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="09.26.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="09.19.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Template" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
-    <t>12.05.2016</t>
+    <t>12.12.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -125,6 +126,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>12.05.2016</t>
   </si>
   <si>
     <t>11.28.2016</t>
@@ -607,18 +611,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -627,36 +619,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,18 +635,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -687,36 +643,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,19 +657,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -747,18 +667,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -767,18 +675,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -787,18 +683,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -807,18 +691,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -827,18 +699,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -850,19 +710,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -872,18 +720,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -892,18 +728,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -914,21 +738,6 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -939,40 +748,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1025,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1087,6 +866,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1095,6 +886,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1103,6 +906,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -1111,6 +926,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1119,132 +946,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1321,18 +1366,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1341,36 +1374,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,18 +1390,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -1401,36 +1398,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1441,18 +1414,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1461,18 +1422,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -1481,18 +1430,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -1501,18 +1438,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1521,18 +1446,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1541,18 +1454,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1561,18 +1462,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -1583,120 +1472,30 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1896,7 +1695,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1922,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1945,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1965,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1979,16 +1778,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2081,7 +1880,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2144,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2153,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2214,6 +2013,486 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2235,7 +2514,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2349,16 +2628,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2386,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2395,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -2406,10 +2685,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2446,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2458,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2478,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2506,19 +2785,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2549,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2572,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -2611,10 +2890,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2637,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -2668,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2704,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2832,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2866,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2946,16 +3225,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2978,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3015,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3049,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3100,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3148,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3187,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3312,13 +3591,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3346,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3372,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3406,19 +3685,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3435,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3455,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3486,7 +3765,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3495,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3506,10 +3785,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -3529,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3580,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3667,13 +3946,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3721,6 +4000,486 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,7 +4501,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3923,7 +4682,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -4113,7 +4872,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4205,7 +4964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4227,7 +4986,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4408,7 +5167,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -4598,7 +5357,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4682,440 +5441,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -5193,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -5222,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5233,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5250,7 +5575,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5270,19 +5595,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5290,13 +5615,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -5307,19 +5632,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5353,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -5370,7 +5695,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5390,13 +5715,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -5409,9 +5734,6 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -5444,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -5474,13 +5796,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5497,9 +5816,6 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -5676,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5713,7 +6029,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5722,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5736,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5750,19 +6066,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5793,7 +6109,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5813,10 +6129,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -5842,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5853,19 +6169,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5896,10 +6200,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -5930,27 +6234,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5978,59 +6267,29 @@
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -611,6 +611,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -619,6 +622,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -627,6 +633,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -635,6 +644,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -643,6 +655,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -651,6 +666,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -659,6 +677,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -667,6 +688,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -675,6 +699,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -683,6 +710,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -691,6 +721,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -699,6 +732,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -712,6 +748,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -720,6 +759,9 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -728,6 +770,9 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -738,6 +783,9 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -748,10 +796,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -614,6 +614,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -625,6 +628,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -636,6 +642,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -647,6 +656,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -658,6 +670,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -669,6 +684,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -680,6 +698,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -691,6 +712,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -702,6 +726,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -713,6 +740,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -724,6 +754,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -735,6 +768,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -751,6 +787,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -762,6 +801,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -773,6 +815,9 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -786,6 +831,9 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -799,12 +847,18 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -617,6 +617,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -631,6 +634,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -645,6 +651,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -659,6 +668,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -673,6 +685,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -687,6 +702,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -701,6 +719,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -715,6 +736,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -729,6 +753,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -743,6 +770,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -757,6 +787,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -771,6 +804,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -790,6 +826,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -804,6 +843,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -818,6 +860,9 @@
       <c r="D19" t="n">
         <v>1</v>
       </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -834,6 +879,9 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -850,6 +898,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -859,6 +910,9 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -620,6 +620,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -637,6 +640,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -654,6 +660,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -671,6 +680,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -688,6 +700,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -705,6 +720,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -722,6 +740,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -739,6 +760,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -756,6 +780,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -773,6 +800,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -790,6 +820,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -807,6 +840,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -829,6 +865,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -846,6 +885,9 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -863,6 +905,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -882,6 +927,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -901,6 +949,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -914,6 +965,9 @@
       </c>
       <c r="E25" t="n">
         <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -909,6 +909,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:7"/>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
         <v>25</v>
@@ -967,6 +968,9 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,20 +6,21 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12.12.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.05.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="11.28.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="11.21.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="11.14.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="11.07.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="10.31.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="10.24.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="10.17.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.10.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="10.03.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="09.26.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="09.19.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Template" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="12.19.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.12.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12.05.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="11.28.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="11.21.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="11.14.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="11.07.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10.31.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10.24.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.17.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10.10.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.03.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="09.26.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="09.19.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Template" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
-    <t>12.12.2016</t>
+    <t>12.19.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +66,13 @@
     <t>Austin Haruki</t>
   </si>
   <si>
+    <t>Brayton Acoba</t>
+  </si>
+  <si>
     <t>Brett Kimura</t>
+  </si>
+  <si>
+    <t>Bryan Tanaka</t>
   </si>
   <si>
     <t>Caden Morikuni</t>
@@ -119,13 +126,16 @@
     <t>Rex Li</t>
   </si>
   <si>
-    <t>Richard Yan</t>
-  </si>
-  <si>
     <t>Rick Kooker</t>
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>12.12.2016</t>
+  </si>
+  <si>
+    <t>Richard Yan</t>
   </si>
   <si>
     <t>12.05.2016</t>
@@ -549,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -611,18 +621,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -631,37 +629,13 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -671,37 +645,13 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -711,18 +661,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -731,18 +669,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -751,18 +677,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -771,37 +685,13 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -809,19 +699,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -829,18 +707,6 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -848,6 +714,9 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -856,84 +725,38 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="B21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -941,38 +764,11 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -984,32 +780,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -1040,7 +841,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1087,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1121,19 +922,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1141,7 +942,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1161,10 +962,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1173,21 +974,21 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1201,19 +1002,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1221,7 +1022,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1241,10 +1042,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1261,13 +1062,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1281,7 +1082,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1293,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1301,27 +1102,15 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1341,16 +1130,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1361,12 +1150,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1381,32 +1170,17 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1426,67 +1200,37 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>
@@ -1524,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,7 +1284,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1549,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1586,6 +1330,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1594,52 +1350,136 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,29 +1490,77 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1682,68 +1570,190 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -1774,7 +1784,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1820,18 +1830,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1840,367 +1838,133 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -2254,7 +2018,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2335,7 +2099,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2355,7 +2119,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2375,7 +2139,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2395,7 +2159,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2415,16 +2179,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2435,7 +2199,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2444,18 +2208,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2464,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2475,19 +2239,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2495,7 +2259,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2515,7 +2279,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2535,7 +2299,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2555,12 +2319,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2580,7 +2344,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2600,7 +2364,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2620,7 +2384,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2640,10 +2404,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2652,15 +2416,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2680,7 +2444,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <f>SUM(B4:B25)/COUNT(B4:B25)</f>
@@ -2713,6 +2477,486 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2734,7 +2978,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2801,7 +3045,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2848,16 +3092,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2885,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2902,13 +3146,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2922,7 +3166,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2942,10 +3186,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2954,24 +3198,24 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2982,7 +3226,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2994,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -3002,7 +3246,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3011,18 +3255,18 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -3042,7 +3286,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -3051,18 +3295,18 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -3082,32 +3326,32 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3119,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -3136,10 +3380,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -3147,12 +3391,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -3164,20 +3408,17 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -3189,27 +3430,24 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3217,17 +3455,17 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
         <f>SUM(B4:B28)/COUNT(B4:B28)</f>
@@ -3281,7 +3519,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3328,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3365,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3374,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -3382,13 +3620,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3402,7 +3640,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3422,10 +3660,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3437,12 +3675,12 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3457,12 +3695,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -3482,27 +3720,27 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -3522,27 +3760,27 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -3551,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -3562,12 +3800,12 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -3587,13 +3825,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3607,7 +3845,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -3616,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -3627,12 +3865,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -3647,17 +3885,17 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -3677,13 +3915,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -3697,17 +3935,17 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
         <f>SUM(B4:B28)/COUNT(B4:B28)</f>
@@ -3761,7 +3999,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3811,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3845,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3862,7 +4100,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -3882,7 +4120,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3902,7 +4140,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3922,19 +4160,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3942,7 +4180,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -3957,12 +4195,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -3982,7 +4220,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -3994,15 +4232,15 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -4022,32 +4260,32 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -4067,7 +4305,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -4079,15 +4317,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4107,12 +4345,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -4127,17 +4365,17 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4157,7 +4395,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4166,28 +4404,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
         <f>SUM(B4:B28)/COUNT(B4:B28)</f>
@@ -4241,7 +4479,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4291,13 +4529,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4325,7 +4563,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4342,7 +4580,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -4351,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4362,7 +4600,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -4382,27 +4620,27 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -4414,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4422,7 +4660,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -4434,15 +4672,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -4462,10 +4700,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4474,21 +4712,21 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -4502,32 +4740,32 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -4547,7 +4785,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -4559,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -4567,7 +4805,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4587,12 +4825,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -4612,12 +4850,12 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4637,7 +4875,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4646,28 +4884,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
         <f>SUM(B4:B28)/COUNT(B4:B28)</f>
@@ -4700,6 +4938,486 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4721,7 +5439,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4822,7 +5540,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -4842,7 +5560,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -4862,7 +5580,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -4882,7 +5600,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -4902,7 +5620,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -4922,7 +5640,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -4942,7 +5660,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -4962,7 +5680,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -4982,7 +5700,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -5002,12 +5720,12 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -5027,7 +5745,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -5047,7 +5765,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -5067,12 +5785,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5092,17 +5810,17 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5122,7 +5840,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -5142,17 +5860,17 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8">
         <f>SUM(B4:B29)/COUNT(B4:B29)</f>
@@ -5184,7 +5902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,7 +5924,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -5307,7 +6025,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -5327,7 +6045,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -5347,7 +6065,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -5367,7 +6085,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -5387,7 +6105,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -5407,7 +6125,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -5423,491 +6141,6 @@
       </c>
       <c r="F12" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
-        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
-        <v/>
-      </c>
-      <c r="C30" s="8">
-        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
-        <v/>
-      </c>
-      <c r="D30" s="8">
-        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
-        <v/>
-      </c>
-      <c r="E30" s="8">
-        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
-        <v/>
-      </c>
-      <c r="F30" s="8">
-        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
-        <v/>
-      </c>
-      <c r="G30" s="8">
-        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5921,24 +6154,24 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5952,27 +6185,27 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5995,31 +6228,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>39</v>
+      <c r="A21" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6038,63 +6289,96 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -6125,7 +6409,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6172,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -6201,24 +6485,24 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -6226,10 +6510,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6246,36 +6530,36 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -6286,19 +6570,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6306,7 +6590,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -6326,13 +6610,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -6346,10 +6630,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6366,16 +6650,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -6386,15 +6670,12 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -6414,7 +6695,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -6423,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -6434,12 +6715,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -6452,19 +6733,16 @@
       </c>
       <c r="F20" t="n">
         <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -6476,15 +6754,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -6504,17 +6779,17 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B4:B26)/COUNT(B4:B26)</f>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -621,6 +621,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -629,6 +632,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -637,6 +643,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -645,6 +654,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -653,6 +665,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -661,6 +676,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -669,6 +687,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -677,6 +698,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -685,6 +709,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -693,6 +720,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -701,6 +731,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -709,6 +742,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -717,6 +753,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -725,6 +764,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -738,6 +780,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -746,6 +791,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -754,6 +802,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -764,6 +815,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -774,10 +828,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -624,6 +624,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -635,6 +638,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -646,6 +652,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -657,6 +666,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -668,6 +680,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -679,6 +694,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -690,6 +708,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -701,6 +722,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -712,6 +736,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -723,6 +750,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -734,6 +764,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -745,6 +778,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -756,6 +792,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -767,6 +806,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -783,6 +825,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -794,6 +839,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -805,6 +853,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -818,6 +869,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -831,12 +885,18 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -627,6 +627,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -641,6 +644,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -655,6 +661,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -669,6 +678,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -683,6 +695,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -697,6 +712,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -711,6 +729,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -725,6 +746,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -739,6 +763,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -753,6 +780,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -767,6 +797,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -781,6 +814,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -795,6 +831,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -809,6 +848,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -828,6 +870,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -842,6 +887,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -856,6 +904,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -872,6 +923,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -888,6 +942,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -897,6 +954,9 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -630,6 +630,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -647,6 +650,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -664,6 +670,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -681,6 +690,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -698,6 +710,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -715,6 +730,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -732,6 +750,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -749,6 +770,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -766,6 +790,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -783,6 +810,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -800,6 +830,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -817,6 +850,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -834,6 +870,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -851,6 +890,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -873,6 +915,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -890,6 +935,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -907,6 +955,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -926,6 +977,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -945,6 +999,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -957,6 +1014,9 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -980,6 +980,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1002,6 +1005,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1017,6 +1023,9 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,21 +6,22 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12.19.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.12.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="12.05.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="11.28.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="11.21.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="11.14.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="11.07.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="10.31.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="10.24.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.17.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="10.10.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.03.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="09.26.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="09.19.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Template" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="12.26.2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.19.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12.12.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12.05.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="11.28.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="11.21.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="11.14.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11.07.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10.31.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.24.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10.17.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.10.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.03.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="09.26.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="09.19.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Template" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
-    <t>12.19.2016</t>
+    <t>12.26.2016</t>
   </si>
   <si>
     <t>Total</t>
@@ -130,6 +131,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>12.19.2016</t>
   </si>
   <si>
     <t>12.12.2016</t>
@@ -619,18 +623,6 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -641,18 +633,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -661,18 +641,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -681,18 +649,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -701,18 +657,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -721,18 +665,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -741,36 +673,12 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -779,19 +687,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -801,37 +697,13 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -841,18 +713,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -861,18 +721,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -881,18 +729,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -906,18 +742,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -926,18 +750,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -946,18 +758,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -968,21 +768,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -993,40 +778,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1137,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1166,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1177,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1194,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1214,19 +969,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1234,13 +989,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1251,19 +1006,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1297,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1314,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1334,13 +1089,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1353,9 +1108,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1388,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1418,13 +1170,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1443,9 +1192,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -1469,7 +1215,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1580,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1620,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1657,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1666,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1680,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1694,19 +1440,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1737,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1757,10 +1503,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1786,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1797,19 +1543,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1840,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1874,27 +1608,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1922,59 +1641,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2017,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2079,6 +1768,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2087,6 +1788,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -2095,6 +1808,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -2103,6 +1828,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2111,132 +1848,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2313,18 +2268,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2333,36 +2276,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2373,18 +2292,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2393,36 +2300,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2433,18 +2316,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -2453,18 +2324,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2473,18 +2332,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -2493,18 +2340,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -2513,18 +2348,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -2533,18 +2356,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2553,18 +2364,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -2575,120 +2374,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2888,7 +2597,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2914,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2937,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2957,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2971,16 +2680,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3073,7 +2782,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3133,10 +2842,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3145,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3206,6 +2915,486 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3227,7 +3416,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3278,7 +3467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3303,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -3347,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3378,16 +3567,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -3395,19 +3584,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3415,27 +3604,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3450,75 +3639,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3530,44 +3719,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -3575,12 +3764,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3592,82 +3796,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -3679,65 +3886,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -3768,7 +3998,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3815,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3852,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3875,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3912,7 +4142,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3921,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3932,13 +4162,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3961,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -3978,13 +4208,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4018,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4057,19 +4287,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4086,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4103,10 +4333,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -4133,9 +4363,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -4158,9 +4385,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -4170,13 +4394,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4184,7 +4408,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4295,16 +4519,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4332,7 +4556,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4341,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -4352,10 +4576,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4392,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -4404,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4424,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4452,19 +4676,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4495,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4518,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -4557,10 +4781,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4583,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -4614,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4650,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4664,7 +4888,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4778,13 +5002,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4812,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4892,16 +5116,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4924,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4961,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4995,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5046,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5094,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5133,18 +5357,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5258,13 +5482,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5292,7 +5516,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5318,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5352,19 +5576,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5381,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5401,10 +5625,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5432,7 +5656,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5441,10 +5665,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5452,10 +5676,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5475,16 +5699,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5526,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5613,18 +5837,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5667,6 +5891,486 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5688,7 +6392,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -5869,7 +6573,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -6059,7 +6763,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6109,7 +6813,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6151,7 +6855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6173,7 +6877,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6354,7 +7058,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -6544,7 +7248,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6594,7 +7298,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6628,440 +7332,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -625,6 +625,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -633,6 +636,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -641,6 +647,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -649,6 +658,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -657,6 +669,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -665,6 +680,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -673,6 +691,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -681,6 +702,9 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -689,6 +713,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -697,6 +724,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -705,6 +735,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -713,6 +746,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -721,6 +757,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -729,6 +768,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -742,6 +784,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -750,6 +795,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -758,6 +806,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -768,6 +819,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -778,10 +832,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -628,6 +628,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -639,6 +642,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -650,6 +656,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -661,6 +670,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -672,6 +684,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -683,6 +698,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -694,6 +712,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -705,6 +726,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -716,6 +740,9 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -727,6 +754,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -738,6 +768,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -749,6 +782,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -760,6 +796,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -771,6 +810,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -787,6 +829,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -798,6 +843,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -809,6 +857,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -822,6 +873,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -835,12 +889,18 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -631,6 +631,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -645,6 +648,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -659,6 +665,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -673,6 +682,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -687,6 +699,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -701,6 +716,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -715,6 +733,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -729,6 +750,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -743,6 +767,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -757,6 +784,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -771,6 +801,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -785,6 +818,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -799,6 +835,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -813,6 +852,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -832,6 +874,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -846,6 +891,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -860,6 +908,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -876,6 +927,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -892,6 +946,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -901,6 +958,9 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -634,6 +634,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -651,6 +654,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -668,6 +674,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -685,6 +694,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -702,6 +714,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -719,6 +734,9 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -736,6 +754,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -753,6 +774,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -770,6 +794,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -787,6 +814,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -804,6 +834,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -821,6 +854,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -838,6 +874,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -855,6 +894,9 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -877,6 +919,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -894,6 +939,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -911,6 +959,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -930,6 +981,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -949,6 +1003,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -961,6 +1018,9 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -984,6 +984,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1006,6 +1009,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1021,6 +1027,9 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,22 +6,23 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12.26.2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.19.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="12.12.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="12.05.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="11.28.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="11.21.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="11.14.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="11.07.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="10.31.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.24.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="10.17.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.10.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10.03.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="09.26.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="09.19.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Template" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="01.02.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.26.2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12.19.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12.12.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="12.05.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="11.28.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="11.21.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11.14.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="11.07.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.31.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10.24.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.17.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.10.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10.03.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="09.26.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="09.19.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Template" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
-    <t>12.26.2016</t>
+    <t>01.02.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -131,6 +132,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>12.26.2016</t>
   </si>
   <si>
     <t>12.19.2016</t>
@@ -625,37 +629,13 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -665,18 +645,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -685,18 +653,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -705,18 +661,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -725,18 +669,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -745,36 +677,12 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +691,6 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -805,18 +701,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -825,37 +709,13 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -865,18 +725,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -885,18 +733,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -910,18 +746,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -930,18 +754,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -950,18 +762,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -972,21 +772,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -997,40 +782,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1078,10 +833,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
@@ -1103,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -1135,7 +890,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1155,7 +910,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1170,24 +925,24 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1195,10 +950,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1215,7 +970,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1235,10 +990,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1255,7 +1010,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1264,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1275,7 +1030,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1295,10 +1050,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1310,12 +1065,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1324,24 +1079,24 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1355,79 +1110,97 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1439,65 +1212,98 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -1575,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1604,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1615,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1632,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1652,19 +1458,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1672,13 +1478,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1689,19 +1495,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1735,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1752,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1772,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1791,9 +1597,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -1826,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1856,13 +1659,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1881,9 +1681,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -1907,7 +1704,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2018,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2058,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2095,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2104,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2118,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2132,19 +1929,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2175,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2195,10 +1992,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2224,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -2235,19 +2032,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2278,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2312,27 +2097,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2360,59 +2130,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2455,7 +2195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2517,6 +2257,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2525,6 +2277,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -2533,6 +2297,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -2541,6 +2317,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2549,132 +2337,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2751,18 +2757,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2771,36 +2765,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2811,18 +2781,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2831,36 +2789,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,18 +2805,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -2891,18 +2813,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2911,18 +2821,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -2931,18 +2829,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -2951,18 +2837,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -2971,18 +2845,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2991,18 +2853,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3013,120 +2863,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3326,7 +3086,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -3352,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3375,13 +3135,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3395,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3409,16 +3169,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3511,7 +3271,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3571,10 +3331,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3583,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3644,6 +3404,486 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3665,7 +3905,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3776,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -3785,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3819,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -3865,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3916,10 +4156,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -3928,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3936,10 +4176,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3962,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -3976,13 +4216,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4135,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4163,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4171,19 +4411,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4231,7 +4471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4256,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -4300,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4331,16 +4571,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -4348,19 +4588,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4368,27 +4608,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -4403,75 +4643,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4483,44 +4723,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -4528,12 +4768,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -4545,82 +4800,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4632,65 +4890,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -4721,7 +5002,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4768,16 +5049,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4805,7 +5086,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4828,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4865,7 +5146,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -4874,10 +5155,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4885,13 +5166,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4914,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -4931,13 +5212,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4971,13 +5252,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5010,19 +5291,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5039,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5056,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5086,9 +5367,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -5111,9 +5389,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -5123,13 +5398,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -5137,7 +5412,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5248,16 +5523,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5285,7 +5560,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5294,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5305,10 +5580,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5345,7 +5620,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5357,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5377,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5405,19 +5680,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5448,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5471,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5510,10 +5785,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5536,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5567,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5603,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -5617,7 +5892,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5731,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5765,7 +6040,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5845,16 +6120,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5877,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5914,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5948,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5999,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6047,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6086,18 +6361,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6211,13 +6486,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6245,7 +6520,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6271,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6305,19 +6580,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6334,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6354,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6385,7 +6660,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6394,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6405,10 +6680,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -6428,16 +6703,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6479,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -6566,18 +6841,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6620,6 +6895,486 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6641,7 +7396,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6822,7 +7577,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7012,7 +7767,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7062,492 +7817,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="8">
-        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
-        <v/>
-      </c>
-      <c r="C30" s="8">
-        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
-        <v/>
-      </c>
-      <c r="D30" s="8">
-        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
-        <v/>
-      </c>
-      <c r="E30" s="8">
-        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
-        <v/>
-      </c>
-      <c r="F30" s="8">
-        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
-        <v/>
-      </c>
-      <c r="G30" s="8">
-        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -629,6 +629,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -637,6 +640,9 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -645,6 +651,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -653,6 +662,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -661,6 +673,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -669,6 +684,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -677,6 +695,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -685,6 +706,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -693,6 +717,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -701,6 +728,9 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -709,6 +739,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -717,6 +750,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -725,6 +761,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -733,6 +772,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -746,6 +788,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -754,6 +799,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -762,6 +810,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -772,6 +823,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -782,10 +836,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -632,6 +632,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -643,6 +646,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -654,6 +660,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -665,6 +674,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -676,6 +688,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -687,6 +702,9 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -698,6 +716,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -709,6 +730,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -720,6 +744,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -731,6 +758,9 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -742,6 +772,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -753,6 +786,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -764,6 +800,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -775,6 +814,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -791,6 +833,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -802,6 +847,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -813,6 +861,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -826,6 +877,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -839,6 +893,9 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -846,6 +903,9 @@
       </c>
       <c r="C27" t="n">
         <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -635,6 +635,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -649,6 +652,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -663,6 +669,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -677,6 +686,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -691,6 +703,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -705,6 +720,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -719,6 +737,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -733,6 +754,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -747,6 +771,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -761,6 +788,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -775,6 +805,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -789,6 +822,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -803,6 +839,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -817,6 +856,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -836,6 +878,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -850,6 +895,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -864,6 +912,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -880,6 +931,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -896,6 +950,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -906,6 +963,9 @@
       </c>
       <c r="D27" t="n">
         <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -638,6 +638,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -655,6 +658,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -672,6 +678,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -689,6 +698,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -706,6 +718,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -723,6 +738,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -740,6 +758,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -757,6 +778,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -774,6 +798,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -791,6 +818,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -808,6 +838,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -825,6 +858,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -842,6 +878,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -859,6 +898,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -881,6 +923,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -898,6 +943,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -915,6 +963,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -934,6 +985,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -953,6 +1007,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -965,6 +1022,9 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -988,6 +988,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1010,6 +1013,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1026,6 +1032,9 @@
       </c>
       <c r="F27" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,23 +6,24 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.02.2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.26.2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="12.19.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="12.12.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="12.05.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="11.28.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="11.21.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="11.14.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="11.07.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.31.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="10.24.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.17.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10.10.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10.03.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="09.26.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="09.19.2016" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Template" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="01.09.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01.02.2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="12.26.2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12.19.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="12.12.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="12.05.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="11.28.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11.21.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="11.14.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="11.07.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10.31.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.24.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.17.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10.10.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10.03.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="09.26.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="09.19.2016" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Template" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
-    <t>01.02.2017</t>
+    <t>01.09.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -132,6 +133,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>01.02.2017</t>
   </si>
   <si>
     <t>12.26.2016</t>
@@ -629,36 +633,12 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,19 +647,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -689,18 +657,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -709,37 +665,13 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -749,36 +681,12 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,37 +697,13 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -829,36 +713,12 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,18 +729,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -889,18 +737,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -914,37 +750,13 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -954,18 +766,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -976,21 +776,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1001,40 +786,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1077,6 +832,491 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1338,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1279,7 +1519,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1469,7 +1709,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1519,7 +1759,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1553,440 +1793,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2064,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2093,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2104,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2121,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2141,19 +1947,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2161,13 +1967,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -2178,19 +1984,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2224,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2241,7 +2047,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2261,13 +2067,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2280,9 +2086,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2315,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2345,13 +2148,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2370,9 +2170,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -2396,7 +2193,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2507,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2547,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2584,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2593,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2607,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2621,19 +2418,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2664,7 +2461,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2684,10 +2481,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2713,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -2724,19 +2521,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2767,10 +2552,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2801,27 +2586,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2849,59 +2619,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2944,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3006,6 +2746,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3014,6 +2766,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -3022,6 +2786,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -3030,6 +2806,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3038,132 +2826,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3240,18 +3246,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3260,36 +3254,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3300,18 +3270,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3320,36 +3278,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,18 +3294,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -3380,18 +3302,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -3400,18 +3310,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -3420,18 +3318,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -3440,18 +3326,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -3460,18 +3334,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3480,18 +3342,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3502,120 +3352,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3815,7 +3575,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -3841,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3864,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3884,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3898,16 +3658,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4000,7 +3760,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4060,10 +3820,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -4072,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4133,6 +3893,486 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4154,7 +4394,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4271,13 +4511,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4285,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4317,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4354,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4374,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4405,7 +4645,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -4414,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4425,10 +4665,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4448,13 +4688,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -4474,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4485,7 +4725,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4511,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -4534,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -4596,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4663,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4672,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4780,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -4789,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4823,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -4869,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4920,10 +5160,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -4932,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4940,10 +5180,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4966,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4980,13 +5220,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5139,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5167,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5175,19 +5415,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5235,7 +5475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5260,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -5304,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5335,16 +5575,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5352,19 +5592,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5372,27 +5612,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -5407,75 +5647,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -5487,44 +5727,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5532,12 +5772,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -5549,82 +5804,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5636,65 +5894,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -5725,7 +6006,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -5772,16 +6053,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5809,7 +6090,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5832,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5869,7 +6150,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5878,10 +6159,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5889,13 +6170,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5918,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5935,13 +6216,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5975,13 +6256,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6014,19 +6295,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6043,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6060,10 +6341,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6090,9 +6371,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -6115,9 +6393,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -6127,13 +6402,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -6141,7 +6416,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6252,16 +6527,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6289,7 +6564,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6298,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6309,10 +6584,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6349,7 +6624,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6361,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6381,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6409,19 +6684,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6452,16 +6727,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6475,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6514,10 +6789,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -6540,10 +6815,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6571,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6607,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -6621,7 +6896,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6735,13 +7010,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6769,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6849,16 +7124,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6881,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6918,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6952,16 +7227,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7003,10 +7278,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7051,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7090,18 +7365,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7215,13 +7490,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7249,7 +7524,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -7275,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7309,19 +7584,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7338,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -7358,10 +7633,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7389,7 +7664,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -7398,10 +7673,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7409,10 +7684,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -7432,16 +7707,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7483,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -7570,18 +7845,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7629,7 +7904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7654,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
         <v/>
       </c>
     </row>
@@ -7701,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7741,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7755,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -7781,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7815,24 +8090,24 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -7846,19 +8121,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -7866,7 +8141,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -7881,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7889,7 +8164,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -7912,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -7986,11 +8261,11 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8016,17 +8291,32 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -8041,65 +8331,45 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="8">
-        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
-        <v/>
-      </c>
-      <c r="C30" s="8">
-        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
-        <v/>
-      </c>
-      <c r="D30" s="8">
-        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
-        <v/>
-      </c>
-      <c r="E30" s="8">
-        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
-        <v/>
-      </c>
-      <c r="F30" s="8">
-        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
-        <v/>
-      </c>
-      <c r="G30" s="8">
-        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
         <v/>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -633,6 +633,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -641,6 +644,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -649,6 +655,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -657,6 +666,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -665,6 +677,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -673,6 +688,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -681,6 +699,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -689,6 +710,9 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -697,6 +721,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -705,6 +732,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -713,6 +743,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -721,6 +754,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -729,6 +765,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -737,6 +776,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -750,6 +792,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -758,6 +803,9 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -766,6 +814,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -776,6 +827,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -786,10 +840,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -636,6 +636,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -647,6 +650,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -658,6 +664,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -669,6 +678,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -680,6 +692,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -691,6 +706,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -702,6 +720,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -713,6 +734,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -724,6 +748,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -735,6 +762,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -746,6 +776,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -757,6 +790,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -768,6 +804,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -779,6 +818,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -795,6 +837,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -806,6 +851,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -817,6 +865,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -830,6 +881,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -843,12 +897,18 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -639,6 +639,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -653,6 +656,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -667,6 +673,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -681,6 +690,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -695,6 +707,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -709,6 +724,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -723,6 +741,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -737,6 +758,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -751,6 +775,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -765,6 +792,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -779,6 +809,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -793,6 +826,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -807,6 +843,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -821,6 +860,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -840,6 +882,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -854,6 +899,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -868,6 +916,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -884,6 +935,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -900,6 +954,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -909,6 +966,9 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -642,6 +642,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -659,6 +662,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -676,6 +682,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -693,6 +702,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -710,6 +722,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -727,6 +742,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -744,6 +762,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -761,6 +782,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -778,6 +802,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -795,6 +822,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -812,6 +842,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -829,6 +862,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -846,6 +882,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -863,6 +902,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -885,6 +927,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -902,6 +947,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -919,6 +967,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -938,6 +989,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -957,6 +1011,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -969,6 +1026,9 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -992,6 +992,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1014,6 +1017,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1029,6 +1035,9 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,24 +6,25 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.09.2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="01.02.2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="12.26.2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="12.19.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="12.12.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="12.05.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="11.28.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="11.21.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="11.14.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="11.07.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="10.31.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.24.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10.17.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10.10.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10.03.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="09.26.2016" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="09.19.2016" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Template" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="01.16.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01.09.2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.02.2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12.26.2016" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="12.19.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="12.12.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="12.05.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11.28.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="11.21.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="11.14.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.07.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.31.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.24.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10.17.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10.10.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10.03.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="09.26.2016" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="09.19.2016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Template" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,9 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
-    <t>01.09.2017</t>
+    <t>01.16.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -133,6 +134,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>01.09.2017</t>
   </si>
   <si>
     <t>01.02.2017</t>
@@ -633,18 +637,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -653,18 +645,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -673,18 +653,6 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -693,18 +661,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -713,18 +669,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -733,18 +677,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -753,37 +685,13 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -793,18 +701,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -813,37 +709,13 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -853,18 +725,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -873,18 +733,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -893,18 +741,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -918,18 +754,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -938,18 +762,6 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -958,18 +770,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -980,21 +780,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1005,40 +790,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1081,6 +836,486 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,7 +1337,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1283,7 +1518,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1473,7 +1708,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1523,7 +1758,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1565,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1587,7 +1822,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1768,7 +2003,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1958,7 +2193,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2008,7 +2243,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2042,440 +2277,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -2553,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2582,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2593,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2610,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2630,19 +2431,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2650,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -2667,19 +2468,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2713,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2730,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2750,13 +2551,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2769,9 +2570,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -2804,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2834,13 +2632,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2859,9 +2654,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -2885,7 +2677,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2996,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3036,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3073,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3082,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3096,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3110,19 +2902,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3153,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3173,10 +2965,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -3202,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -3213,19 +3005,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3256,10 +3036,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3290,27 +3070,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3338,59 +3103,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3433,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3458,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3495,6 +3230,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3503,6 +3250,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -3511,6 +3270,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -3519,6 +3290,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3527,132 +3310,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3729,18 +3730,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3749,36 +3738,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3789,18 +3754,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -3809,36 +3762,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,18 +3778,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -3869,18 +3786,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -3889,18 +3794,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -3909,18 +3802,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -3929,18 +3810,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -3949,18 +3818,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3969,18 +3826,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3991,120 +3836,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4304,7 +4059,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -4330,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4353,13 +4108,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4373,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4387,16 +4142,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4489,7 +4244,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4549,10 +4304,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -4561,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4622,6 +4377,486 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4643,7 +4878,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -4774,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4794,10 +5029,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -4806,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4823,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4846,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4854,10 +5089,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -4894,10 +5129,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -4934,19 +5169,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4957,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -4966,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4974,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -5000,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5059,19 +5294,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5085,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -5152,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -5161,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5275,13 +5510,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5289,7 +5524,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5321,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5358,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5378,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5409,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -5418,10 +5653,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5429,10 +5664,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5452,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5478,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5489,7 +5724,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -5515,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5538,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -5600,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -5667,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -5676,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5784,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5793,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5827,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5873,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5924,10 +6159,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5936,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5944,10 +6179,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5970,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -5984,13 +6219,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6143,10 +6378,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6171,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6179,19 +6414,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6239,7 +6474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6264,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -6308,10 +6543,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6339,16 +6574,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6356,19 +6591,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6376,27 +6611,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -6411,75 +6646,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6491,44 +6726,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6536,12 +6771,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -6553,82 +6803,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -6640,65 +6893,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -6729,7 +7005,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6776,16 +7052,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6813,7 +7089,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6836,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6873,7 +7149,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6882,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6893,13 +7169,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6922,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -6939,13 +7215,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6979,13 +7255,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7018,19 +7294,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7047,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7064,10 +7340,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -7094,9 +7370,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -7119,9 +7392,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -7131,13 +7401,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7145,7 +7415,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7256,16 +7526,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7293,7 +7563,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -7302,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -7313,10 +7583,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7353,7 +7623,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -7365,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7385,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7413,19 +7683,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7456,16 +7726,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7479,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -7518,10 +7788,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -7544,10 +7814,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -7575,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7611,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -7625,7 +7895,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7739,13 +8009,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7773,7 +8043,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -7853,16 +8123,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -7885,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7922,10 +8192,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7956,16 +8226,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8007,10 +8277,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8055,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8094,18 +8364,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8219,13 +8489,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8253,7 +8523,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -8279,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8313,19 +8583,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8342,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -8362,10 +8632,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8393,7 +8663,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -8402,10 +8672,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8413,10 +8683,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8436,16 +8706,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8487,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -8574,18 +8844,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -637,6 +637,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -645,6 +648,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -653,6 +659,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -661,6 +670,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -669,6 +681,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -677,6 +692,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -685,6 +703,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -693,6 +714,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -701,6 +725,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -709,6 +736,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -717,6 +747,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -725,6 +758,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -733,6 +769,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -741,6 +780,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -754,6 +796,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -762,6 +807,9 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -770,6 +818,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -780,6 +831,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -790,10 +844,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -640,6 +640,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -651,6 +654,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -662,6 +668,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -673,6 +682,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -684,6 +696,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -695,6 +710,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -706,6 +724,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -717,6 +738,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -728,6 +752,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -739,6 +766,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -750,6 +780,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -761,6 +794,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -772,6 +808,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -783,6 +822,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -799,6 +841,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -810,6 +855,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -821,6 +869,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -834,6 +885,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -847,6 +901,9 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -854,6 +911,9 @@
       </c>
       <c r="C27" t="n">
         <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -643,6 +643,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -657,6 +660,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -671,6 +677,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -685,6 +694,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -699,6 +711,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -713,6 +728,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -727,6 +745,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -741,6 +762,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -755,6 +779,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -769,6 +796,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -783,6 +813,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -797,6 +830,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -811,6 +847,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -825,6 +864,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -844,6 +886,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -858,6 +903,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -872,6 +920,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -888,6 +939,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -904,6 +958,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -914,6 +971,9 @@
       </c>
       <c r="D27" t="n">
         <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -646,6 +646,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -663,6 +666,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -680,6 +686,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -697,6 +706,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -714,6 +726,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -731,6 +746,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -748,6 +766,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -765,6 +786,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -782,6 +806,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -799,6 +826,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -816,6 +846,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -833,6 +866,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -850,6 +886,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -867,6 +906,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -889,6 +931,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -906,6 +951,9 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -923,6 +971,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -942,6 +993,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -961,6 +1015,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -973,6 +1030,9 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -996,6 +996,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1018,6 +1021,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1034,6 +1040,9 @@
       </c>
       <c r="F27" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,25 +6,26 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.16.2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="01.09.2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.02.2017" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="12.26.2016" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="12.19.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="12.12.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="12.05.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="11.28.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="11.21.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="11.14.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11.07.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.31.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10.24.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10.17.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10.10.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10.03.2016" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="09.26.2016" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="09.19.2016" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Template" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="01.23.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01.16.2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.09.2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="01.02.2017" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="12.26.2016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="12.19.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="12.12.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="12.05.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="11.28.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="11.21.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.14.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11.07.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10.31.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10.24.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10.17.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10.10.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="10.03.2016" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="09.26.2016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="09.19.2016" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Template" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
-    <t>01.16.2017</t>
+    <t>01.23.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -134,6 +135,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>01.16.2017</t>
   </si>
   <si>
     <t>01.09.2017</t>
@@ -637,18 +641,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -657,37 +649,13 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -697,18 +665,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -717,18 +673,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -737,18 +681,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -757,18 +689,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -777,18 +697,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -797,18 +705,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -817,36 +713,12 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,18 +729,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -877,18 +737,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -897,18 +745,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -922,18 +758,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -942,18 +766,6 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -962,18 +774,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -984,21 +784,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1009,40 +794,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1156,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1190,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1216,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1250,19 +1005,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1279,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1299,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1330,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1339,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1350,10 +1105,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1373,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1424,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1511,18 +1266,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1565,6 +1320,486 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +1821,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -1767,7 +2002,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1957,7 +2192,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2007,7 +2242,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2049,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2071,7 +2306,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2252,7 +2487,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2442,7 +2677,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2492,7 +2727,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2526,440 +2761,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3037,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3066,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3077,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3094,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3114,19 +2915,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3134,13 +2935,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -3151,19 +2952,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3197,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -3214,7 +3015,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3234,13 +3035,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -3253,9 +3054,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3288,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3318,13 +3116,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3343,9 +3138,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -3369,7 +3161,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3480,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3520,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3557,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3566,10 +3358,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3580,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3594,19 +3386,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3637,7 +3429,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3657,10 +3449,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -3686,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -3697,19 +3489,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3740,10 +3520,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3774,27 +3554,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3822,59 +3587,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3917,7 +3652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3942,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3979,6 +3714,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3987,6 +3734,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -3995,6 +3754,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4003,6 +3774,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4011,132 +3794,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4213,18 +4214,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4233,36 +4222,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4273,18 +4238,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4293,36 +4246,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4262,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -4353,18 +4270,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -4373,18 +4278,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -4393,18 +4286,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -4413,18 +4294,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -4433,18 +4302,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -4453,18 +4310,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -4475,120 +4320,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4788,7 +4543,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -4814,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4837,13 +4592,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4857,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4871,16 +4626,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4973,7 +4728,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -5033,10 +4788,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -5045,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5111,9 +4866,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="98">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5136,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
         <v/>
       </c>
     </row>
@@ -5166,9 +4921,422 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5241,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -5281,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5310,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5330,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5350,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5378,7 +5546,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5387,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5427,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5438,10 +5606,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5481,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -5575,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5625,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5636,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -5645,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5684,6 +5852,73 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="98">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(#REF!)/COUNT(#REF!)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5773,7 +6008,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5793,10 +6028,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5805,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5822,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5845,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5853,10 +6088,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -5893,10 +6128,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5933,19 +6168,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5956,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5965,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5973,7 +6208,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -5999,10 +6234,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6058,19 +6293,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6084,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -6151,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -6160,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6274,13 +6509,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6288,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -6320,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6357,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6377,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6408,7 +6643,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -6417,10 +6652,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6428,10 +6663,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6451,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6477,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -6488,7 +6723,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -6514,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6537,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6599,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -6666,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -6675,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6783,7 +7018,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -6792,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6826,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -6872,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6923,10 +7158,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -6935,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6943,10 +7178,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6969,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -6983,13 +7218,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7142,10 +7377,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7170,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7178,19 +7413,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7238,7 +7473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7263,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -7307,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7338,16 +7573,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -7355,19 +7590,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -7375,27 +7610,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -7410,75 +7645,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -7490,44 +7725,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -7535,12 +7770,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -7552,82 +7802,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -7639,65 +7892,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -7728,7 +8004,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -7775,16 +8051,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7812,7 +8088,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -7835,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7872,7 +8148,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -7881,10 +8157,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7892,13 +8168,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7921,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -7938,13 +8214,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7978,13 +8254,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8017,19 +8293,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8046,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8063,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -8093,9 +8369,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -8118,9 +8391,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -8130,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -8144,7 +8414,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8255,16 +8525,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8292,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -8301,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -8312,10 +8582,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8352,7 +8622,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -8364,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8384,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8412,19 +8682,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8455,16 +8725,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8478,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -8517,10 +8787,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8543,10 +8813,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -8574,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8610,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -8624,7 +8894,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8738,13 +9008,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8772,7 +9042,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -8852,16 +9122,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -8884,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8921,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8955,16 +9225,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9006,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9054,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9093,18 +9363,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -641,6 +641,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -649,6 +652,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -657,6 +663,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -665,6 +674,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -673,6 +685,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -681,6 +696,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -689,6 +707,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -697,6 +718,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -705,6 +729,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -713,6 +740,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -721,6 +751,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -729,6 +762,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -737,6 +773,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -745,6 +784,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -758,6 +800,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -766,6 +811,9 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -774,6 +822,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -784,6 +835,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -794,10 +848,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -644,6 +644,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -655,6 +658,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -666,6 +672,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -677,6 +686,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -688,6 +700,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -699,6 +714,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -710,6 +728,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -721,6 +742,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -732,6 +756,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -743,6 +770,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -754,6 +784,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -765,6 +798,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -776,6 +812,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -787,6 +826,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -803,6 +845,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -814,6 +859,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -825,6 +873,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -838,6 +889,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -851,6 +905,9 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -858,6 +915,9 @@
       </c>
       <c r="C27" t="n">
         <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -647,6 +647,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -661,6 +664,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -675,6 +681,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -689,6 +698,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -703,6 +715,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -717,6 +732,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -731,6 +749,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -745,6 +766,9 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -759,6 +783,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -773,6 +800,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -787,6 +817,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -801,6 +834,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -815,6 +851,9 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -829,6 +868,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -848,6 +890,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -862,6 +907,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -876,6 +924,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -892,6 +943,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -908,6 +962,9 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -917,6 +974,9 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -650,6 +650,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -667,6 +670,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -684,6 +690,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -701,6 +710,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -718,6 +730,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -735,6 +750,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -752,6 +770,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -769,6 +790,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -786,6 +810,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -803,6 +830,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -820,6 +850,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -837,6 +870,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -854,6 +890,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -871,6 +910,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -893,6 +935,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -910,6 +955,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -927,6 +975,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -946,6 +997,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -965,6 +1019,9 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -978,6 +1035,9 @@
       </c>
       <c r="E27" t="n">
         <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -1000,6 +1000,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1022,6 +1025,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1037,6 +1043,9 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,26 +6,27 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.23.2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="01.16.2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.09.2017" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="01.02.2017" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="12.26.2016" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="12.19.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="12.12.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="12.05.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="11.28.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="11.21.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11.14.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="11.07.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10.31.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10.24.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10.17.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10.10.2016" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="10.03.2016" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="09.26.2016" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="09.19.2016" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Template" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="01.30.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01.23.2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.16.2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="01.09.2017" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="01.02.2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="12.26.2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="12.19.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="12.12.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="12.05.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="11.28.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.21.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11.14.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.07.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10.31.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10.24.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10.17.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="10.10.2016" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="10.03.2016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="09.26.2016" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="09.19.2016" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Template" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
-    <t>01.23.2017</t>
+    <t>01.30.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>01.23.2017</t>
   </si>
   <si>
     <t>01.16.2017</t>
@@ -641,18 +645,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -661,18 +653,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -681,18 +661,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -701,18 +669,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -721,36 +677,12 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,37 +693,13 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -801,18 +709,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -821,18 +717,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -841,18 +725,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -861,18 +733,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -881,18 +741,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -901,18 +749,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -926,37 +762,13 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -964,18 +776,6 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -988,21 +788,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1013,40 +798,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1160,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1194,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1274,16 +1029,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1306,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1343,10 +1098,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1377,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1428,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1476,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1515,18 +1270,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1640,13 +1395,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1674,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1700,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1734,19 +1489,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1763,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1783,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1814,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1823,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1834,10 +1589,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1857,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1908,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1995,18 +1750,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2049,6 +1804,486 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2070,7 +2305,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2251,7 +2486,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2441,7 +2676,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2491,7 +2726,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2533,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2555,7 +2790,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2736,7 +2971,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2926,7 +3161,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2976,7 +3211,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3010,440 +3245,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -3521,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3550,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3561,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3578,7 +3379,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3598,19 +3399,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3618,13 +3419,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -3635,19 +3436,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3681,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -3698,7 +3499,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3718,13 +3519,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -3737,9 +3538,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -3772,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3802,13 +3600,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3827,9 +3622,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -3853,7 +3645,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3964,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4004,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4041,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4050,10 +3842,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4064,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4078,19 +3870,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4121,7 +3913,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4141,10 +3933,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -4170,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4181,19 +3973,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4224,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4258,27 +4038,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4306,59 +4071,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4401,7 +4136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4426,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4463,6 +4198,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4471,6 +4218,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4479,6 +4238,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4487,6 +4258,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4495,132 +4278,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4697,18 +4698,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4717,36 +4706,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4757,18 +4722,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4777,36 +4730,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,18 +4746,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -4837,18 +4754,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -4857,18 +4762,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -4877,18 +4770,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -4897,18 +4778,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -4917,18 +4786,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -4937,18 +4794,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -4959,120 +4804,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5272,7 +5027,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -5298,10 +5053,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5321,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5341,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5355,16 +5110,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5457,7 +5212,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -5517,10 +5272,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -5529,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5661,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5687,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5695,7 +5450,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5707,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5724,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5767,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5787,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5804,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5855,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5864,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5969,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -6017,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6036,13 +5791,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6056,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6105,6 +5860,486 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6126,7 +6361,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6240,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -6280,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -6309,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6329,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6349,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6377,7 +6612,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6386,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6426,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6437,10 +6672,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -6480,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -6574,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6624,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6635,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -6644,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6772,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -6792,10 +7027,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -6804,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6821,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6844,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6852,10 +7087,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -6892,10 +7127,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -6932,19 +7167,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6955,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -6964,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6972,7 +7207,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -6998,10 +7233,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -7057,19 +7292,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7083,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -7150,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -7159,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7273,13 +7508,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7287,7 +7522,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -7319,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7356,10 +7591,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7376,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -7407,7 +7642,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -7416,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7427,10 +7662,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -7450,13 +7685,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7476,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -7487,7 +7722,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -7513,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -7536,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -7598,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -7665,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -7674,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7782,7 +8017,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -7791,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7825,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7871,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7922,10 +8157,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -7934,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7942,10 +8177,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -7968,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -7982,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8141,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8169,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8177,19 +8412,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8237,7 +8472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8262,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -8306,10 +8541,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8337,16 +8572,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -8354,19 +8589,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -8374,27 +8609,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -8409,75 +8644,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -8489,44 +8724,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -8534,12 +8769,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -8551,82 +8801,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -8638,65 +8891,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -8727,7 +9003,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -8774,16 +9050,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8811,7 +9087,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -8834,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8871,7 +9147,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -8880,10 +9156,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8891,13 +9167,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8920,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -8937,13 +9213,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8977,13 +9253,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9016,19 +9292,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9045,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9062,10 +9338,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -9092,9 +9368,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -9117,9 +9390,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -9129,13 +9399,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -9143,7 +9413,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9254,16 +9524,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9291,7 +9561,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9300,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -9311,10 +9581,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -9351,7 +9621,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9363,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9383,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9411,19 +9681,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9454,16 +9724,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9477,10 +9747,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -9516,10 +9786,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -9542,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -9573,7 +9843,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9609,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -9623,7 +9893,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -645,6 +645,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -653,6 +656,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -661,6 +667,9 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -669,6 +678,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -677,6 +689,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -685,6 +700,9 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -693,6 +711,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -701,6 +722,9 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -709,6 +733,9 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -717,6 +744,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -725,6 +755,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -733,6 +766,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -741,6 +777,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -749,6 +788,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -762,6 +804,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -770,6 +815,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -778,6 +826,9 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -788,6 +839,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -798,10 +852,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -648,6 +648,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -659,6 +662,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -670,6 +676,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -681,6 +690,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -692,6 +704,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -703,6 +718,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -714,6 +732,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -725,6 +746,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -736,6 +760,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -747,6 +774,9 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -758,6 +788,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -769,6 +802,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -780,6 +816,9 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -791,6 +830,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -807,6 +849,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -818,6 +863,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -829,6 +877,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -842,6 +893,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -855,6 +909,9 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -862,6 +919,9 @@
       </c>
       <c r="C27" t="n">
         <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -651,6 +651,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -665,6 +668,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -679,6 +685,9 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -693,6 +702,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -707,6 +719,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -721,6 +736,9 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -735,6 +753,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -749,6 +770,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -763,6 +787,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -777,6 +804,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -791,6 +821,9 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -805,6 +838,9 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -819,6 +855,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -833,6 +872,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -852,6 +894,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -866,6 +911,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -880,6 +928,9 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -896,6 +947,9 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -912,6 +966,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -921,6 +978,9 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -654,6 +654,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -671,6 +674,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -688,6 +694,9 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -705,6 +714,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -722,6 +734,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -739,6 +754,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -756,6 +774,9 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -773,6 +794,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -790,6 +814,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -807,6 +834,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -824,6 +854,9 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -841,6 +874,9 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -858,6 +894,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -875,6 +914,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -897,6 +939,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -914,6 +959,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -931,6 +979,9 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -950,6 +1001,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -969,6 +1023,9 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -981,6 +1038,9 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -1004,6 +1004,9 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1026,6 +1029,9 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1042,6 +1048,9 @@
       </c>
       <c r="F27" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -6,27 +6,28 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.30.2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="01.23.2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.16.2017" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="01.09.2017" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="01.02.2017" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="12.26.2016" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="12.19.2016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="12.12.2016" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="12.05.2016" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="11.28.2016" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11.21.2016" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="11.14.2016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.07.2016" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10.31.2016" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10.24.2016" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10.17.2016" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="10.10.2016" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="10.03.2016" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="09.26.2016" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="09.19.2016" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Template" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="02.06.2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01.30.2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.23.2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="01.16.2017" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="01.09.2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="01.02.2017" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="12.26.2016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="12.19.2016" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="12.12.2016" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="12.05.2016" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.28.2016" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11.21.2016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.14.2016" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="11.07.2016" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10.31.2016" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10.24.2016" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="10.17.2016" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="10.10.2016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="10.03.2016" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="09.26.2016" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="09.19.2016" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Template" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,9 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
-    <t>01.30.2017</t>
+    <t>02.06.2017</t>
   </si>
   <si>
     <t>Total</t>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>01.30.2017</t>
   </si>
   <si>
     <t>01.23.2017</t>
@@ -645,18 +649,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -665,36 +657,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -705,18 +673,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -725,37 +681,13 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -765,36 +697,12 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -802,21 +710,6 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -825,36 +718,12 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -865,37 +734,13 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -905,18 +750,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -927,21 +760,6 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -950,36 +768,12 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,21 +786,6 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1017,40 +796,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1161,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1198,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1207,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1218,10 +967,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1258,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1270,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1290,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1318,19 +1067,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1361,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1384,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1423,10 +1172,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1449,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1480,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1516,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1530,7 +1279,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1644,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1678,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1758,16 +1507,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1790,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1827,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1861,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1912,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1960,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1999,18 +1748,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2124,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2158,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2184,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2218,19 +1967,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2247,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -2267,10 +2016,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2298,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2307,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2318,10 +2067,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -2341,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2392,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2479,18 +2228,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2533,6 +2282,486 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
+        <v/>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
+        <v/>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
+        <v/>
+      </c>
+      <c r="G29" s="8">
+        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2554,7 +2783,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -2735,7 +2964,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2925,7 +3154,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2975,7 +3204,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3017,7 +3246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3039,7 +3268,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -3220,7 +3449,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -3410,7 +3639,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3460,7 +3689,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3494,440 +3723,6 @@
       </c>
       <c r="G30" s="8">
         <f>SUM(G4:G29)/COUNT(G4:G29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
-    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
-        <v/>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="8">
-        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
-        <v/>
-      </c>
-      <c r="F27" s="8">
-        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
-        <v/>
-      </c>
-      <c r="G27" s="8">
-        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4005,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4034,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4045,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4062,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4082,19 +3877,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4102,13 +3897,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -4119,19 +3914,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4165,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -4182,7 +3977,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4202,13 +3997,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4221,9 +4016,6 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -4256,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4286,13 +4078,10 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4311,9 +4100,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -4337,7 +4123,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4448,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4488,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4525,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4534,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4548,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4562,19 +4348,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4605,7 +4391,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4625,10 +4411,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -4654,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4665,19 +4451,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4708,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4742,27 +4516,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4790,59 +4549,29 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4885,7 +4614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4910,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <f>SUM(B4:G26)/COUNT(B4:G26)</f>
         <v/>
       </c>
     </row>
@@ -4947,6 +4676,18 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -4955,6 +4696,18 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4963,6 +4716,18 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -4971,6 +4736,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -4979,132 +4756,350 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
-        <v/>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
-        <v/>
-      </c>
-      <c r="F26" s="8">
-        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
-        <v/>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+      <c r="B27" s="8">
+        <f>SUM(B4:B26)/COUNT(B4:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C4:C26)/COUNT(C4:C26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(D4:D26)/COUNT(D4:D26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="8">
+        <f>SUM(E4:E26)/COUNT(E4:E26)</f>
+        <v/>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F4:F26)/COUNT(F4:F26)</f>
+        <v/>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(G4:G26)/COUNT(G4:G26)</f>
         <v/>
       </c>
     </row>
@@ -5181,18 +5176,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -5201,36 +5184,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5241,18 +5200,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -5261,36 +5208,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5301,18 +5224,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -5321,18 +5232,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -5341,18 +5240,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -5361,18 +5248,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -5381,18 +5256,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -5401,18 +5264,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -5421,18 +5272,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -5443,120 +5282,30 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5691,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5711,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5759,7 +5508,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5791,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5799,13 +5548,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -5868,10 +5617,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5905,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5931,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5964,7 +5713,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -5984,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -5996,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6034,19 +5783,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6054,19 +5803,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6271,7 +6020,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -6297,10 +6046,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -6320,13 +6069,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6340,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6354,16 +6103,16 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6456,7 +6205,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6516,10 +6265,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -6528,10 +6277,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6589,6 +6338,486 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="5" width="24.69921875"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.19921875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="8.69921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="10.19921875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(B4:G25)/COUNT(B4:G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B4:B25)/COUNT(B4:B25)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C4:C25)/COUNT(C4:C25)</f>
+        <v/>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(D4:D25)/COUNT(D4:D25)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E4:E25)/COUNT(E4:E25)</f>
+        <v/>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F4:F25)/COUNT(F4:F25)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G4:G25)/COUNT(G4:G25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6610,7 +6839,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -6727,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6753,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6761,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6773,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6790,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6833,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6853,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6870,10 +7099,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6921,7 +7150,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -6930,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7035,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -7083,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7102,13 +7331,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7122,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7239,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -7279,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7308,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7328,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7348,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7376,7 +7605,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -7385,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -7425,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -7436,10 +7665,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -7479,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -7573,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7623,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7634,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -7643,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7771,7 +8000,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -7791,10 +8020,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7803,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7820,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -7843,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7851,10 +8080,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7891,10 +8120,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -7931,19 +8160,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7954,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -7963,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7971,7 +8200,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -7997,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -8056,19 +8285,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8082,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -8149,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -8158,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8272,13 +8501,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8286,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -8318,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8355,10 +8584,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8375,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -8406,7 +8635,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -8415,10 +8644,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8426,10 +8655,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8449,13 +8678,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -8475,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -8486,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -8512,10 +8741,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -8535,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -8597,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -8664,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -8673,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8781,7 +9010,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -8790,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -8824,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8870,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8921,10 +9150,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8933,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8941,10 +9170,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8967,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -8981,13 +9210,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9140,10 +9369,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9168,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9176,19 +9405,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9236,7 +9465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9261,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(B4:G28)/COUNT(B4:G28)</f>
+        <f>SUM(B4:G29)/COUNT(B4:G29)</f>
         <v/>
       </c>
     </row>
@@ -9305,10 +9534,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9336,16 +9565,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -9353,19 +9582,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -9373,27 +9602,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -9408,75 +9637,75 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9488,44 +9717,44 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -9533,12 +9762,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -9550,82 +9794,85 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -9637,65 +9884,88 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
-        <f>SUM(B4:B28)/COUNT(B4:B28)</f>
-        <v/>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C4:C28)/COUNT(C4:C28)</f>
-        <v/>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D4:D28)/COUNT(D4:D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="8">
-        <f>SUM(E4:E28)/COUNT(E4:E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="8">
-        <f>SUM(F4:F28)/COUNT(F4:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="8">
-        <f>SUM(G4:G28)/COUNT(G4:G28)</f>
+      <c r="B30" s="8">
+        <f>SUM(B4:B29)/COUNT(B4:B29)</f>
+        <v/>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C4:C29)/COUNT(C4:C29)</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D4:D29)/COUNT(D4:D29)</f>
+        <v/>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E4:E29)/COUNT(E4:E29)</f>
+        <v/>
+      </c>
+      <c r="F30" s="8">
+        <f>SUM(F4:F29)/COUNT(F4:F29)</f>
+        <v/>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G4:G29)/COUNT(G4:G29)</f>
         <v/>
       </c>
     </row>
@@ -9726,7 +9996,7 @@
   <sheetData>
     <row customHeight="1" ht="23.4" r="1" s="5" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -9773,16 +10043,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9810,7 +10080,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9833,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -9870,7 +10140,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9879,10 +10149,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9890,13 +10160,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9919,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -9936,13 +10206,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9976,13 +10246,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10015,19 +10285,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10044,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10061,10 +10331,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -10091,9 +10361,6 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -10116,9 +10383,6 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -10128,13 +10392,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10142,7 +10406,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/Timesheet_Report.xlsx
+++ b/Timesheet_Report.xlsx
@@ -649,6 +649,9 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -657,6 +660,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -665,6 +671,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -673,6 +682,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -681,6 +693,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -689,6 +704,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -697,6 +715,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -705,6 +726,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -718,6 +742,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -726,6 +753,9 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -734,6 +764,9 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -742,6 +775,9 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -750,6 +786,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -768,6 +807,9 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -776,6 +818,9 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
@@ -786,6 +831,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -796,10 +844,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>31</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
